--- a/inputs/reliable_stage2_mgs.xlsx
+++ b/inputs/reliable_stage2_mgs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="502">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -459,10 +459,16 @@
     <t xml:space="preserve">pcoupling_oversize_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">price_fuel</t>
+    <t xml:space="preserve">fuel_price</t>
   </si>
   <si>
     <t xml:space="preserve">/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuel_price_change_annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.a.</t>
   </si>
   <si>
     <t xml:space="preserve">project_cost_investment</t>
@@ -1843,12 +1849,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2130,8 +2136,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2290,7 +2296,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,10 +2579,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2783,7 +2789,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>111</v>
@@ -2929,7 +2935,7 @@
         <v>126</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>127</v>
@@ -2951,7 +2957,7 @@
         <v>129</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>130</v>
@@ -3028,7 +3034,7 @@
         <v>138</v>
       </c>
       <c r="B41" s="18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>109</v>
@@ -3108,43 +3114,43 @@
         <v>146</v>
       </c>
       <c r="B48" s="18" t="n">
-        <v>20000</v>
+        <v>0.05</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" s="18" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="18" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3158,7 @@
         <v>151</v>
       </c>
       <c r="B52" s="18" t="n">
-        <v>1250</v>
+        <v>0.5</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>152</v>
@@ -3163,7 +3169,7 @@
         <v>153</v>
       </c>
       <c r="B53" s="18" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>154</v>
@@ -3174,106 +3180,106 @@
         <v>155</v>
       </c>
       <c r="B54" s="18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" s="18" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>91</v>
+        <v>162</v>
+      </c>
+      <c r="B60" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" s="10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>91</v>
+        <v>164</v>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>91</v>
@@ -3281,35 +3287,35 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="18" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,29 +3326,29 @@
         <v>1</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B68" s="18" t="n">
-        <v>250</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" s="18" t="n">
-        <v>6.75</v>
+        <v>250</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,18 +3356,18 @@
         <v>173</v>
       </c>
       <c r="B70" s="18" t="n">
-        <v>13.5</v>
+        <v>6.75</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" s="18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>105</v>
@@ -3369,21 +3375,21 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="28" t="n">
-        <v>0.5</v>
+        <v>177</v>
+      </c>
+      <c r="B73" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>91</v>
@@ -3391,10 +3397,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="18" t="n">
-        <v>0.97</v>
+        <v>178</v>
+      </c>
+      <c r="B74" s="28" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>91</v>
@@ -3402,7 +3408,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" s="18" t="n">
         <v>0.97</v>
@@ -3413,10 +3419,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" s="18" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>91</v>
@@ -3424,65 +3430,65 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B77" s="18" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" s="18" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="18" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="18" t="s">
         <v>184</v>
       </c>
+      <c r="B80" s="18" t="n">
+        <v>13.5</v>
+      </c>
       <c r="C80" s="15" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="18" t="n">
-        <v>1</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B82" s="18" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>91</v>
@@ -3490,10 +3496,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B83" s="18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>91</v>
@@ -3501,10 +3507,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B84" s="18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>91</v>
@@ -3512,10 +3518,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" s="18" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>91</v>
@@ -3523,7 +3529,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="18" t="n">
         <v>0</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="18" t="n">
         <v>0</v>
@@ -3545,56 +3551,67 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B89" s="18" t="n">
-        <v>1100</v>
+        <v>0.5</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B90" s="18" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3636,7 +3653,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="15"/>
@@ -3652,10 +3669,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -3681,7 +3698,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -3691,10 +3708,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3704,10 +3721,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3717,10 +3734,10 @@
     </row>
     <row r="8" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3739,13 +3756,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3773,10 +3790,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI122"/>
+  <dimension ref="A1:AMI338"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I122" activeCellId="0" sqref="I122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3797,7 +3814,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5849,10 +5866,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -6878,10 +6895,10 @@
     </row>
     <row r="4" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -7907,10 +7924,10 @@
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -8936,10 +8953,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -9965,10 +9982,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -10994,10 +11011,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12023,10 +12040,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -13052,10 +13069,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -14081,10 +14098,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -15110,10 +15127,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -17164,31 +17181,31 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>227</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>100</v>
@@ -17196,37 +17213,37 @@
       <c r="K14" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>126</v>
+      <c r="L14" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>281600</v>
@@ -17235,36 +17252,36 @@
         <v>2816</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>6.62086654505217</v>
+        <v>2921.04985500952</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="H16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>215200</v>
@@ -17273,36 +17290,36 @@
         <v>2152</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>3.75724536020813</v>
+        <v>50075.1403715916</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>320800</v>
@@ -17311,36 +17328,36 @@
         <v>3208</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>3.81257293579353</v>
+        <v>13770.6636021876</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>228000</v>
@@ -17349,36 +17366,36 @@
         <v>2280</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>5.26617923980979</v>
+        <v>20864.6418214965</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>216000</v>
@@ -17387,36 +17404,36 @@
         <v>2160</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>5.50090228774783</v>
+        <v>132151.553630717</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>248400</v>
@@ -17425,36 +17442,36 @@
         <v>2484</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>2.47632815574628</v>
+        <v>38808.2337879835</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>180800</v>
@@ -17463,36 +17480,36 @@
         <v>1808</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>2.5031536469392</v>
+        <v>6676.68538287889</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>216400</v>
@@ -17501,36 +17518,36 @@
         <v>2164</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>2.1292733634379</v>
+        <v>167937.171809296</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>123600</v>
@@ -17539,36 +17556,36 @@
         <v>1236</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>8.70654848530158</v>
+        <v>13379.0671221689</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>255200</v>
@@ -17577,36 +17594,36 @@
         <v>2552</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>4.08753422052094</v>
+        <v>84864.0967404924</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>86000</v>
@@ -17615,36 +17632,36 @@
         <v>860</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>4.89062236310894</v>
+        <v>10034.3003416268</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>218000</v>
@@ -17653,36 +17670,36 @@
         <v>2180</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>1.04954734292293</v>
+        <v>261225.315605136</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>337200</v>
@@ -17691,36 +17708,36 @@
         <v>3372</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>2.56854078172194</v>
+        <v>29132.4511198705</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>196400</v>
@@ -17729,36 +17746,36 @@
         <v>1964</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>4.77158424594036</v>
+        <v>16888.3774607946</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>248400</v>
@@ -17767,36 +17784,36 @@
         <v>2484</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1.40833828762822</v>
+        <v>7599.76985735752</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>154400</v>
@@ -17805,36 +17822,36 @@
         <v>1544</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>2.66075340769759</v>
+        <v>117903.029014113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>82400</v>
@@ -17843,36 +17860,36 @@
         <v>824</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1.71683143634678</v>
+        <v>131700.19198385</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>228800</v>
@@ -17881,36 +17898,36 @@
         <v>2288</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.880211429767635</v>
+        <v>223381.761484816</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>118400</v>
@@ -17919,36 +17936,36 @@
         <v>1184</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>2.11083083824277</v>
+        <v>59192.8708180877</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>265200</v>
@@ -17957,36 +17974,36 @@
         <v>2652</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>1.61455925117378</v>
+        <v>268058.786222381</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>84000</v>
@@ -17995,36 +18012,36 @@
         <v>840</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>7.67041388797511</v>
+        <v>166996.769648192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>103600</v>
@@ -18033,36 +18050,36 @@
         <v>1036</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>3.21905894315021</v>
+        <v>62167.6882932246</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>134000</v>
@@ -18071,36 +18088,36 @@
         <v>1340</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>2.64398747570202</v>
+        <v>20970.4174766365</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>108800</v>
@@ -18109,36 +18126,36 @@
         <v>1088</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>3.2743865187356</v>
+        <v>45251.9768479325</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>264000</v>
@@ -18147,36 +18164,36 @@
         <v>2640</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1.97502678907862</v>
+        <v>118065.677902544</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>180800</v>
@@ -18185,36 +18202,36 @@
         <v>1808</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1.4603126768145</v>
+        <v>28563.5324590492</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>126800</v>
@@ -18223,36 +18240,36 @@
         <v>1268</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>4.28537221806872</v>
+        <v>140878.795847337</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>99600</v>
@@ -18261,36 +18278,36 @@
         <v>996</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>1.6095294715751</v>
+        <v>169202.951270302</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>122800</v>
@@ -18299,36 +18316,36 @@
         <v>1228</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>5.16558364783635</v>
+        <v>74414.6917529023</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>129600</v>
@@ -18337,36 +18354,36 @@
         <v>1296</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1.71347824994766</v>
+        <v>53511.6884515254</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>96800</v>
@@ -18375,36 +18392,36 @@
         <v>968</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1.32283203445079</v>
+        <v>341064.482870735</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>177600</v>
@@ -18413,36 +18430,36 @@
         <v>1776</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>1.1887045784862</v>
+        <v>332363.245673953</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>186000</v>
@@ -18451,36 +18468,36 @@
         <v>1860</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>3.37330551750949</v>
+        <v>276755.763710233</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>72800</v>
@@ -18489,36 +18506,36 @@
         <v>728</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>2.09741809264631</v>
+        <v>118468.312231005</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>56400</v>
@@ -18527,36 +18544,36 @@
         <v>564</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>6.12459495798318</v>
+        <v>5016.72079233069</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>162800</v>
@@ -18565,36 +18582,36 @@
         <v>1628</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>6.10447583958849</v>
+        <v>17976.5828391843</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>94400</v>
@@ -18603,36 +18620,36 @@
         <v>944</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>2.63728110290379</v>
+        <v>135753.724335885</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>76400</v>
@@ -18641,36 +18658,36 @@
         <v>764</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>5.82783796166152</v>
+        <v>133779.221128813</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>187200</v>
@@ -18679,36 +18696,36 @@
         <v>1872</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>3.17882070636083</v>
+        <v>190632.999931552</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>115600</v>
@@ -18717,36 +18734,36 @@
         <v>1156</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>5.18234957983192</v>
+        <v>4180.60066027548</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>133200</v>
@@ -18755,36 +18772,36 @@
         <v>1332</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>2.37070278417416</v>
+        <v>190031.100006956</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>182400</v>
@@ -18793,36 +18810,36 @@
         <v>1824</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>4.86715005831513</v>
+        <v>163461.485816769</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>121200</v>
@@ -18831,36 +18848,36 @@
         <v>1212</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>3.21235257035198</v>
+        <v>248125.4919744</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>116800</v>
@@ -18869,36 +18886,36 @@
         <v>1168</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>6.63092610424952</v>
+        <v>126254.139940317</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>85200</v>
@@ -18907,36 +18924,36 @@
         <v>852</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>8.36117028619275</v>
+        <v>93227.3947241417</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>122000</v>
@@ -18945,36 +18962,36 @@
         <v>1220</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>1.49719772720476</v>
+        <v>32635.6946890665</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>69600</v>
@@ -18983,36 +19000,36 @@
         <v>696</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>6.3995562427106</v>
+        <v>165686.99895653</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>306000</v>
@@ -19021,36 +19038,36 @@
         <v>3060</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>4.75984809354346</v>
+        <v>204895.372755404</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>204400</v>
@@ -19059,36 +19076,36 @@
         <v>2044</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>4.87720961751248</v>
+        <v>29511.6792034532</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>155200</v>
@@ -19097,36 +19114,36 @@
         <v>1552</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0.9288326325548</v>
+        <v>256338.540516734</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>180400</v>
@@ -19135,36 +19152,36 @@
         <v>1804</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>2.17454137982595</v>
+        <v>37014.3059050029</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>56400</v>
@@ -19173,36 +19190,36 @@
         <v>564</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>2.79655745686174</v>
+        <v>161556.558714777</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>132800</v>
@@ -19211,36 +19228,36 @@
         <v>1328</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>1.86269504470827</v>
+        <v>58980.0316443962</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>128000</v>
@@ -19249,36 +19266,36 @@
         <v>1280</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>1.49216794760609</v>
+        <v>406723.87295082</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>224000</v>
@@ -19287,36 +19304,36 @@
         <v>2240</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>7.18420186010346</v>
+        <v>417.292836429847</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>220000</v>
@@ -19325,36 +19342,36 @@
         <v>2200</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>10.6614561559855</v>
+        <v>317977.141359607</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>253600</v>
@@ -19363,36 +19380,36 @@
         <v>2536</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>0.96068790334639</v>
+        <v>241396.843801708</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>63600</v>
@@ -19401,36 +19418,36 @@
         <v>636</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>3.73209646221477</v>
+        <v>9818.82516511743</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>92400</v>
@@ -19439,36 +19456,36 @@
         <v>924</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>1.81910362151978</v>
+        <v>44825.0714059707</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>72400</v>
@@ -19477,36 +19494,36 @@
         <v>724</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>1.49719772720476</v>
+        <v>117107.785857229</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>188000</v>
@@ -19515,36 +19532,36 @@
         <v>1880</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>3.28276948473339</v>
+        <v>15961.9740212333</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>170800</v>
@@ -19553,36 +19570,36 @@
         <v>1708</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>2.5936896797153</v>
+        <v>59227.3246577342</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>169600</v>
@@ -19591,36 +19608,36 @@
         <v>1696</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>1.15349612129549</v>
+        <v>165080.415535387</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>226000</v>
@@ -19629,36 +19646,36 @@
         <v>2260</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>6.16148000837345</v>
+        <v>57547.1168660253</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>79600</v>
@@ -19667,36 +19684,36 @@
         <v>796</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>5.50425547414694</v>
+        <v>223217.627260426</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>154800</v>
@@ -19705,36 +19722,36 @@
         <v>1548</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>5.4153960345704</v>
+        <v>376629.630643502</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>233200</v>
@@ -19743,36 +19760,36 @@
         <v>2332</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>1.62629540357068</v>
+        <v>184892.657187739</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>108400</v>
@@ -19781,36 +19798,36 @@
         <v>1084</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>1.81407384192111</v>
+        <v>21321.0633674046</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>99600</v>
@@ -19819,36 +19836,36 @@
         <v>996</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>3.94334720535901</v>
+        <v>979492.274844257</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>181600</v>
@@ -19857,36 +19874,36 @@
         <v>1816</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>1.49887432040432</v>
+        <v>12123.7419147987</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>163600</v>
@@ -19895,36 +19912,36 @@
         <v>1636</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>2.79320427046263</v>
+        <v>114191.672002726</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>234800</v>
@@ -19933,36 +19950,36 @@
         <v>2348</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>3.79580700379795</v>
+        <v>49017.1948174342</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J87" s="0" t="n">
         <v>184400</v>
@@ -19971,36 +19988,36 @@
         <v>1844</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>2.62219176410777</v>
+        <v>13510.7019686356</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>289200</v>
@@ -20009,36 +20026,36 @@
         <v>2892</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>7.2378528424893</v>
+        <v>13353.3707657578</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J89" s="0" t="n">
         <v>177600</v>
@@ -20047,36 +20064,36 @@
         <v>1776</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>2.32040498818744</v>
+        <v>58003.7042637603</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>148400</v>
@@ -20085,36 +20102,36 @@
         <v>1484</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>1.03613459732647</v>
+        <v>276891.968227806</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>118400</v>
@@ -20123,36 +20140,36 @@
         <v>1184</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>1.33289159364813</v>
+        <v>84170.1758822517</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>144400</v>
@@ -20161,36 +20178,36 @@
         <v>1444</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>2.88374030323873</v>
+        <v>44288.1911156915</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J93" s="0" t="n">
         <v>82800</v>
@@ -20199,36 +20216,36 @@
         <v>828</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>3.80418996979574</v>
+        <v>32364.4473537746</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J94" s="0" t="n">
         <v>130000</v>
@@ -20237,36 +20254,36 @@
         <v>1300</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>1.52905299799635</v>
+        <v>415762.181238616</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>110400</v>
@@ -20275,36 +20292,36 @@
         <v>1104</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.902007141361881</v>
+        <v>262110.940346084</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>146800</v>
@@ -20313,36 +20330,36 @@
         <v>1468</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>1.60785287837555</v>
+        <v>7890.95398896108</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>81200</v>
@@ -20351,36 +20368,36 @@
         <v>812</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>1.93814173868835</v>
+        <v>83578.9107284645</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J98" s="0" t="n">
         <v>112000</v>
@@ -20389,36 +20406,36 @@
         <v>1120</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>1.00427932653488</v>
+        <v>271510.84887154</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>155600</v>
@@ -20427,36 +20444,36 @@
         <v>1556</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>1.40666169442866</v>
+        <v>361485.882647699</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>171600</v>
@@ -20465,36 +20482,36 @@
         <v>1716</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>5.79765928406949</v>
+        <v>74731.0702640156</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J101" s="0" t="n">
         <v>200000</v>
@@ -20503,36 +20520,36 @@
         <v>2000</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>1.52569981159723</v>
+        <v>12775.439744911</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J102" s="0" t="n">
         <v>272400</v>
@@ -20541,36 +20558,36 @@
         <v>2724</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>3.40348419510152</v>
+        <v>71076.2940865223</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J103" s="0" t="n">
         <v>88000</v>
@@ -20579,36 +20596,36 @@
         <v>880</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>1.51061047280122</v>
+        <v>229584.065070636</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J104" s="0" t="n">
         <v>198000</v>
@@ -20617,36 +20634,36 @@
         <v>1980</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>3.94334720535901</v>
+        <v>328422.829992716</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>178400</v>
@@ -20655,36 +20672,36 @@
         <v>1784</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.8382965997787</v>
+        <v>212923.995748517</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>122000</v>
@@ -20693,36 +20710,36 @@
         <v>1220</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>1.14846634169682</v>
+        <v>289213.464016106</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J107" s="0" t="n">
         <v>159600</v>
@@ -20731,36 +20748,36 @@
         <v>1596</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>3.94167061215945</v>
+        <v>22577.1757686601</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>131600</v>
@@ -20769,36 +20786,36 @@
         <v>1316</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>2.38411552977062</v>
+        <v>202972.872049388</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>203600</v>
@@ -20807,36 +20824,36 @@
         <v>2036</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.992543174137981</v>
+        <v>115046.346445054</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>141200</v>
@@ -20845,36 +20862,36 @@
         <v>1412</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>1.62629540357068</v>
+        <v>408947.554676424</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>110400</v>
@@ -20883,36 +20900,36 @@
         <v>1104</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.841649786177815</v>
+        <v>81273.2182318931</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>96400</v>
@@ -20921,36 +20938,36 @@
         <v>964</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>1.21888325607823</v>
+        <v>209521.695375915</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>87200</v>
@@ -20959,36 +20976,36 @@
         <v>872</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>2.34052410658213</v>
+        <v>84755.4373014059</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>426000</v>
@@ -20997,36 +21014,36 @@
         <v>4260</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>2.32711136098567</v>
+        <v>22799.3095720726</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J115" s="0" t="n">
         <v>144800</v>
@@ -21035,36 +21052,36 @@
         <v>1448</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>5.93178674003408</v>
+        <v>278494.441475729</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>84000</v>
@@ -21073,36 +21090,36 @@
         <v>840</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>2.2550178534047</v>
+        <v>110995.414910023</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>182400</v>
@@ -21111,36 +21128,36 @@
         <v>1824</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>1.34630433924459</v>
+        <v>48305.9740116272</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>372000</v>
@@ -21149,36 +21166,36 @@
         <v>3720</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>1.58941035318042</v>
+        <v>20385.4293899621</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>211200</v>
@@ -21187,36 +21204,36 @@
         <v>2112</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>0.900330548162324</v>
+        <v>261700.108151184</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>77200</v>
@@ -21225,36 +21242,36 @@
         <v>772</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>4.99960092108017</v>
+        <v>57420.4833667013</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>187600</v>
@@ -21263,36 +21280,36 @@
         <v>1876</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>1.62797199677024</v>
+        <v>50975.5987783711</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>86400</v>
@@ -21301,8 +21318,3032 @@
         <v>864</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>4.69949073835939</v>
-      </c>
+        <v>481653.626668214</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0"/>
+      <c r="B123" s="0"/>
+      <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
+      <c r="H123" s="0"/>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0"/>
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0"/>
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+      <c r="G125" s="0"/>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0"/>
+      <c r="L125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0"/>
+      <c r="B126" s="0"/>
+      <c r="C126" s="0"/>
+      <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
+      <c r="F126" s="0"/>
+      <c r="G126" s="0"/>
+      <c r="H126" s="0"/>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+      <c r="K126" s="0"/>
+      <c r="L126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0"/>
+      <c r="B127" s="0"/>
+      <c r="C127" s="0"/>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
+      <c r="H127" s="0"/>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
+      <c r="K127" s="0"/>
+      <c r="L127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0"/>
+      <c r="B128" s="0"/>
+      <c r="C128" s="0"/>
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+      <c r="F128" s="0"/>
+      <c r="G128" s="0"/>
+      <c r="H128" s="0"/>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
+      <c r="K128" s="0"/>
+      <c r="L128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0"/>
+      <c r="B129" s="0"/>
+      <c r="C129" s="0"/>
+      <c r="D129" s="0"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="0"/>
+      <c r="G129" s="0"/>
+      <c r="H129" s="0"/>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
+      <c r="K129" s="0"/>
+      <c r="L129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0"/>
+      <c r="B130" s="0"/>
+      <c r="C130" s="0"/>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="F130" s="0"/>
+      <c r="G130" s="0"/>
+      <c r="H130" s="0"/>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
+      <c r="K130" s="0"/>
+      <c r="L130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0"/>
+      <c r="B131" s="0"/>
+      <c r="C131" s="0"/>
+      <c r="D131" s="0"/>
+      <c r="E131" s="0"/>
+      <c r="F131" s="0"/>
+      <c r="G131" s="0"/>
+      <c r="H131" s="0"/>
+      <c r="I131" s="0"/>
+      <c r="J131" s="0"/>
+      <c r="K131" s="0"/>
+      <c r="L131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0"/>
+      <c r="B132" s="0"/>
+      <c r="C132" s="0"/>
+      <c r="D132" s="0"/>
+      <c r="E132" s="0"/>
+      <c r="F132" s="0"/>
+      <c r="G132" s="0"/>
+      <c r="H132" s="0"/>
+      <c r="I132" s="0"/>
+      <c r="J132" s="0"/>
+      <c r="K132" s="0"/>
+      <c r="L132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0"/>
+      <c r="B133" s="0"/>
+      <c r="C133" s="0"/>
+      <c r="D133" s="0"/>
+      <c r="E133" s="0"/>
+      <c r="F133" s="0"/>
+      <c r="G133" s="0"/>
+      <c r="H133" s="0"/>
+      <c r="I133" s="0"/>
+      <c r="J133" s="0"/>
+      <c r="K133" s="0"/>
+      <c r="L133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0"/>
+      <c r="B134" s="0"/>
+      <c r="C134" s="0"/>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
+      <c r="F134" s="0"/>
+      <c r="G134" s="0"/>
+      <c r="H134" s="0"/>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+      <c r="K134" s="0"/>
+      <c r="L134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0"/>
+      <c r="B135" s="0"/>
+      <c r="C135" s="0"/>
+      <c r="D135" s="0"/>
+      <c r="E135" s="0"/>
+      <c r="F135" s="0"/>
+      <c r="G135" s="0"/>
+      <c r="H135" s="0"/>
+      <c r="I135" s="0"/>
+      <c r="J135" s="0"/>
+      <c r="K135" s="0"/>
+      <c r="L135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0"/>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+      <c r="G136" s="0"/>
+      <c r="H136" s="0"/>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0"/>
+      <c r="B137" s="0"/>
+      <c r="C137" s="0"/>
+      <c r="D137" s="0"/>
+      <c r="E137" s="0"/>
+      <c r="F137" s="0"/>
+      <c r="G137" s="0"/>
+      <c r="H137" s="0"/>
+      <c r="I137" s="0"/>
+      <c r="J137" s="0"/>
+      <c r="K137" s="0"/>
+      <c r="L137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0"/>
+      <c r="B138" s="0"/>
+      <c r="C138" s="0"/>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
+      <c r="H138" s="0"/>
+      <c r="I138" s="0"/>
+      <c r="J138" s="0"/>
+      <c r="K138" s="0"/>
+      <c r="L138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0"/>
+      <c r="B139" s="0"/>
+      <c r="C139" s="0"/>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
+      <c r="H139" s="0"/>
+      <c r="I139" s="0"/>
+      <c r="J139" s="0"/>
+      <c r="K139" s="0"/>
+      <c r="L139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0"/>
+      <c r="B140" s="0"/>
+      <c r="C140" s="0"/>
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
+      <c r="H140" s="0"/>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0"/>
+      <c r="B141" s="0"/>
+      <c r="C141" s="0"/>
+      <c r="D141" s="0"/>
+      <c r="E141" s="0"/>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
+      <c r="H141" s="0"/>
+      <c r="I141" s="0"/>
+      <c r="J141" s="0"/>
+      <c r="K141" s="0"/>
+      <c r="L141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0"/>
+      <c r="B142" s="0"/>
+      <c r="C142" s="0"/>
+      <c r="D142" s="0"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+      <c r="G142" s="0"/>
+      <c r="H142" s="0"/>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0"/>
+      <c r="B143" s="0"/>
+      <c r="C143" s="0"/>
+      <c r="D143" s="0"/>
+      <c r="E143" s="0"/>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
+      <c r="H143" s="0"/>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
+      <c r="K143" s="0"/>
+      <c r="L143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0"/>
+      <c r="B145" s="0"/>
+      <c r="C145" s="0"/>
+      <c r="D145" s="0"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
+      <c r="H145" s="0"/>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
+      <c r="K145" s="0"/>
+      <c r="L145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0"/>
+      <c r="B146" s="0"/>
+      <c r="C146" s="0"/>
+      <c r="D146" s="0"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
+      <c r="H146" s="0"/>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0"/>
+      <c r="B147" s="0"/>
+      <c r="C147" s="0"/>
+      <c r="D147" s="0"/>
+      <c r="E147" s="0"/>
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
+      <c r="H147" s="0"/>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
+      <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0"/>
+      <c r="B148" s="0"/>
+      <c r="C148" s="0"/>
+      <c r="D148" s="0"/>
+      <c r="E148" s="0"/>
+      <c r="F148" s="0"/>
+      <c r="G148" s="0"/>
+      <c r="H148" s="0"/>
+      <c r="I148" s="0"/>
+      <c r="J148" s="0"/>
+      <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0"/>
+      <c r="B149" s="0"/>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
+      <c r="H149" s="0"/>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0"/>
+      <c r="B150" s="0"/>
+      <c r="C150" s="0"/>
+      <c r="D150" s="0"/>
+      <c r="E150" s="0"/>
+      <c r="F150" s="0"/>
+      <c r="G150" s="0"/>
+      <c r="H150" s="0"/>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
+      <c r="K150" s="0"/>
+      <c r="L150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0"/>
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+      <c r="L152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0"/>
+      <c r="B153" s="0"/>
+      <c r="C153" s="0"/>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0"/>
+      <c r="F153" s="0"/>
+      <c r="G153" s="0"/>
+      <c r="H153" s="0"/>
+      <c r="I153" s="0"/>
+      <c r="J153" s="0"/>
+      <c r="K153" s="0"/>
+      <c r="L153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
+      <c r="H154" s="0"/>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
+      <c r="K154" s="0"/>
+      <c r="L154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0"/>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
+      <c r="H155" s="0"/>
+      <c r="I155" s="0"/>
+      <c r="J155" s="0"/>
+      <c r="K155" s="0"/>
+      <c r="L155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0"/>
+      <c r="B156" s="0"/>
+      <c r="C156" s="0"/>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
+      <c r="H156" s="0"/>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
+      <c r="K156" s="0"/>
+      <c r="L156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0"/>
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+      <c r="H157" s="0"/>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
+      <c r="K157" s="0"/>
+      <c r="L157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0"/>
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="0"/>
+      <c r="G158" s="0"/>
+      <c r="H158" s="0"/>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
+      <c r="K158" s="0"/>
+      <c r="L158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+      <c r="G159" s="0"/>
+      <c r="H159" s="0"/>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
+      <c r="K159" s="0"/>
+      <c r="L159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0"/>
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+      <c r="G160" s="0"/>
+      <c r="H160" s="0"/>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
+      <c r="K160" s="0"/>
+      <c r="L160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+      <c r="G161" s="0"/>
+      <c r="H161" s="0"/>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
+      <c r="K161" s="0"/>
+      <c r="L161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0"/>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+      <c r="D162" s="0"/>
+      <c r="E162" s="0"/>
+      <c r="F162" s="0"/>
+      <c r="G162" s="0"/>
+      <c r="H162" s="0"/>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
+      <c r="K162" s="0"/>
+      <c r="L162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
+      <c r="L163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="H164" s="0"/>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
+      <c r="K164" s="0"/>
+      <c r="L164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0"/>
+      <c r="B166" s="0"/>
+      <c r="C166" s="0"/>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
+      <c r="F166" s="0"/>
+      <c r="G166" s="0"/>
+      <c r="H166" s="0"/>
+      <c r="I166" s="0"/>
+      <c r="J166" s="0"/>
+      <c r="K166" s="0"/>
+      <c r="L166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+      <c r="K167" s="0"/>
+      <c r="L167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="D168" s="0"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+      <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
+      <c r="H170" s="0"/>
+      <c r="I170" s="0"/>
+      <c r="J170" s="0"/>
+      <c r="K170" s="0"/>
+      <c r="L170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="H171" s="0"/>
+      <c r="I171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="L171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="H172" s="0"/>
+      <c r="I172" s="0"/>
+      <c r="J172" s="0"/>
+      <c r="K172" s="0"/>
+      <c r="L172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0"/>
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
+      <c r="H173" s="0"/>
+      <c r="I173" s="0"/>
+      <c r="J173" s="0"/>
+      <c r="K173" s="0"/>
+      <c r="L173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
+      <c r="F174" s="0"/>
+      <c r="G174" s="0"/>
+      <c r="H174" s="0"/>
+      <c r="I174" s="0"/>
+      <c r="J174" s="0"/>
+      <c r="K174" s="0"/>
+      <c r="L174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0"/>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0"/>
+      <c r="B176" s="0"/>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
+      <c r="H176" s="0"/>
+      <c r="I176" s="0"/>
+      <c r="J176" s="0"/>
+      <c r="K176" s="0"/>
+      <c r="L176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0"/>
+      <c r="B177" s="0"/>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
+      <c r="H177" s="0"/>
+      <c r="I177" s="0"/>
+      <c r="J177" s="0"/>
+      <c r="K177" s="0"/>
+      <c r="L177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="H178" s="0"/>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
+      <c r="K178" s="0"/>
+      <c r="L178" s="0"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0"/>
+      <c r="B179" s="0"/>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
+      <c r="H179" s="0"/>
+      <c r="I179" s="0"/>
+      <c r="J179" s="0"/>
+      <c r="K179" s="0"/>
+      <c r="L179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0"/>
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="0"/>
+      <c r="G180" s="0"/>
+      <c r="H180" s="0"/>
+      <c r="I180" s="0"/>
+      <c r="J180" s="0"/>
+      <c r="K180" s="0"/>
+      <c r="L180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0"/>
+      <c r="B181" s="0"/>
+      <c r="C181" s="0"/>
+      <c r="D181" s="0"/>
+      <c r="E181" s="0"/>
+      <c r="F181" s="0"/>
+      <c r="G181" s="0"/>
+      <c r="H181" s="0"/>
+      <c r="I181" s="0"/>
+      <c r="J181" s="0"/>
+      <c r="K181" s="0"/>
+      <c r="L181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0"/>
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
+      <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
+      <c r="F182" s="0"/>
+      <c r="G182" s="0"/>
+      <c r="H182" s="0"/>
+      <c r="I182" s="0"/>
+      <c r="J182" s="0"/>
+      <c r="K182" s="0"/>
+      <c r="L182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0"/>
+      <c r="B183" s="0"/>
+      <c r="C183" s="0"/>
+      <c r="D183" s="0"/>
+      <c r="E183" s="0"/>
+      <c r="F183" s="0"/>
+      <c r="G183" s="0"/>
+      <c r="H183" s="0"/>
+      <c r="I183" s="0"/>
+      <c r="J183" s="0"/>
+      <c r="K183" s="0"/>
+      <c r="L183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0"/>
+      <c r="B184" s="0"/>
+      <c r="C184" s="0"/>
+      <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
+      <c r="F184" s="0"/>
+      <c r="G184" s="0"/>
+      <c r="H184" s="0"/>
+      <c r="I184" s="0"/>
+      <c r="J184" s="0"/>
+      <c r="K184" s="0"/>
+      <c r="L184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0"/>
+      <c r="B185" s="0"/>
+      <c r="C185" s="0"/>
+      <c r="D185" s="0"/>
+      <c r="E185" s="0"/>
+      <c r="F185" s="0"/>
+      <c r="G185" s="0"/>
+      <c r="H185" s="0"/>
+      <c r="I185" s="0"/>
+      <c r="J185" s="0"/>
+      <c r="K185" s="0"/>
+      <c r="L185" s="0"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0"/>
+      <c r="B186" s="0"/>
+      <c r="C186" s="0"/>
+      <c r="D186" s="0"/>
+      <c r="E186" s="0"/>
+      <c r="F186" s="0"/>
+      <c r="G186" s="0"/>
+      <c r="H186" s="0"/>
+      <c r="I186" s="0"/>
+      <c r="J186" s="0"/>
+      <c r="K186" s="0"/>
+      <c r="L186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0"/>
+      <c r="B187" s="0"/>
+      <c r="C187" s="0"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
+      <c r="H187" s="0"/>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
+      <c r="K187" s="0"/>
+      <c r="L187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0"/>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0"/>
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="H189" s="0"/>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0"/>
+      <c r="B190" s="0"/>
+      <c r="C190" s="0"/>
+      <c r="D190" s="0"/>
+      <c r="E190" s="0"/>
+      <c r="F190" s="0"/>
+      <c r="G190" s="0"/>
+      <c r="H190" s="0"/>
+      <c r="I190" s="0"/>
+      <c r="J190" s="0"/>
+      <c r="K190" s="0"/>
+      <c r="L190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0"/>
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="H191" s="0"/>
+      <c r="I191" s="0"/>
+      <c r="J191" s="0"/>
+      <c r="K191" s="0"/>
+      <c r="L191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0"/>
+      <c r="B192" s="0"/>
+      <c r="C192" s="0"/>
+      <c r="D192" s="0"/>
+      <c r="E192" s="0"/>
+      <c r="F192" s="0"/>
+      <c r="G192" s="0"/>
+      <c r="H192" s="0"/>
+      <c r="I192" s="0"/>
+      <c r="J192" s="0"/>
+      <c r="K192" s="0"/>
+      <c r="L192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0"/>
+      <c r="B193" s="0"/>
+      <c r="C193" s="0"/>
+      <c r="D193" s="0"/>
+      <c r="E193" s="0"/>
+      <c r="F193" s="0"/>
+      <c r="G193" s="0"/>
+      <c r="H193" s="0"/>
+      <c r="I193" s="0"/>
+      <c r="J193" s="0"/>
+      <c r="K193" s="0"/>
+      <c r="L193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0"/>
+      <c r="B194" s="0"/>
+      <c r="C194" s="0"/>
+      <c r="D194" s="0"/>
+      <c r="E194" s="0"/>
+      <c r="F194" s="0"/>
+      <c r="G194" s="0"/>
+      <c r="H194" s="0"/>
+      <c r="I194" s="0"/>
+      <c r="J194" s="0"/>
+      <c r="K194" s="0"/>
+      <c r="L194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0"/>
+      <c r="B195" s="0"/>
+      <c r="C195" s="0"/>
+      <c r="D195" s="0"/>
+      <c r="E195" s="0"/>
+      <c r="F195" s="0"/>
+      <c r="G195" s="0"/>
+      <c r="H195" s="0"/>
+      <c r="I195" s="0"/>
+      <c r="J195" s="0"/>
+      <c r="K195" s="0"/>
+      <c r="L195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0"/>
+      <c r="B196" s="0"/>
+      <c r="C196" s="0"/>
+      <c r="D196" s="0"/>
+      <c r="E196" s="0"/>
+      <c r="F196" s="0"/>
+      <c r="G196" s="0"/>
+      <c r="H196" s="0"/>
+      <c r="I196" s="0"/>
+      <c r="J196" s="0"/>
+      <c r="K196" s="0"/>
+      <c r="L196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0"/>
+      <c r="B197" s="0"/>
+      <c r="C197" s="0"/>
+      <c r="D197" s="0"/>
+      <c r="E197" s="0"/>
+      <c r="F197" s="0"/>
+      <c r="G197" s="0"/>
+      <c r="H197" s="0"/>
+      <c r="I197" s="0"/>
+      <c r="J197" s="0"/>
+      <c r="K197" s="0"/>
+      <c r="L197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0"/>
+      <c r="B198" s="0"/>
+      <c r="C198" s="0"/>
+      <c r="D198" s="0"/>
+      <c r="E198" s="0"/>
+      <c r="F198" s="0"/>
+      <c r="G198" s="0"/>
+      <c r="H198" s="0"/>
+      <c r="I198" s="0"/>
+      <c r="J198" s="0"/>
+      <c r="K198" s="0"/>
+      <c r="L198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0"/>
+      <c r="B199" s="0"/>
+      <c r="C199" s="0"/>
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
+      <c r="H199" s="0"/>
+      <c r="I199" s="0"/>
+      <c r="J199" s="0"/>
+      <c r="K199" s="0"/>
+      <c r="L199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0"/>
+      <c r="B200" s="0"/>
+      <c r="C200" s="0"/>
+      <c r="D200" s="0"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="0"/>
+      <c r="G200" s="0"/>
+      <c r="H200" s="0"/>
+      <c r="I200" s="0"/>
+      <c r="J200" s="0"/>
+      <c r="K200" s="0"/>
+      <c r="L200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0"/>
+      <c r="B201" s="0"/>
+      <c r="C201" s="0"/>
+      <c r="D201" s="0"/>
+      <c r="E201" s="0"/>
+      <c r="F201" s="0"/>
+      <c r="G201" s="0"/>
+      <c r="H201" s="0"/>
+      <c r="I201" s="0"/>
+      <c r="J201" s="0"/>
+      <c r="K201" s="0"/>
+      <c r="L201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0"/>
+      <c r="B202" s="0"/>
+      <c r="C202" s="0"/>
+      <c r="D202" s="0"/>
+      <c r="E202" s="0"/>
+      <c r="F202" s="0"/>
+      <c r="G202" s="0"/>
+      <c r="H202" s="0"/>
+      <c r="I202" s="0"/>
+      <c r="J202" s="0"/>
+      <c r="K202" s="0"/>
+      <c r="L202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0"/>
+      <c r="B203" s="0"/>
+      <c r="C203" s="0"/>
+      <c r="D203" s="0"/>
+      <c r="E203" s="0"/>
+      <c r="F203" s="0"/>
+      <c r="G203" s="0"/>
+      <c r="H203" s="0"/>
+      <c r="I203" s="0"/>
+      <c r="J203" s="0"/>
+      <c r="K203" s="0"/>
+      <c r="L203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0"/>
+      <c r="B204" s="0"/>
+      <c r="C204" s="0"/>
+      <c r="D204" s="0"/>
+      <c r="E204" s="0"/>
+      <c r="F204" s="0"/>
+      <c r="G204" s="0"/>
+      <c r="H204" s="0"/>
+      <c r="I204" s="0"/>
+      <c r="J204" s="0"/>
+      <c r="K204" s="0"/>
+      <c r="L204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0"/>
+      <c r="B205" s="0"/>
+      <c r="C205" s="0"/>
+      <c r="D205" s="0"/>
+      <c r="E205" s="0"/>
+      <c r="F205" s="0"/>
+      <c r="G205" s="0"/>
+      <c r="H205" s="0"/>
+      <c r="I205" s="0"/>
+      <c r="J205" s="0"/>
+      <c r="K205" s="0"/>
+      <c r="L205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0"/>
+      <c r="B206" s="0"/>
+      <c r="C206" s="0"/>
+      <c r="D206" s="0"/>
+      <c r="E206" s="0"/>
+      <c r="F206" s="0"/>
+      <c r="G206" s="0"/>
+      <c r="H206" s="0"/>
+      <c r="I206" s="0"/>
+      <c r="J206" s="0"/>
+      <c r="K206" s="0"/>
+      <c r="L206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0"/>
+      <c r="B207" s="0"/>
+      <c r="C207" s="0"/>
+      <c r="D207" s="0"/>
+      <c r="E207" s="0"/>
+      <c r="F207" s="0"/>
+      <c r="G207" s="0"/>
+      <c r="H207" s="0"/>
+      <c r="I207" s="0"/>
+      <c r="J207" s="0"/>
+      <c r="K207" s="0"/>
+      <c r="L207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0"/>
+      <c r="B208" s="0"/>
+      <c r="C208" s="0"/>
+      <c r="D208" s="0"/>
+      <c r="E208" s="0"/>
+      <c r="F208" s="0"/>
+      <c r="G208" s="0"/>
+      <c r="H208" s="0"/>
+      <c r="I208" s="0"/>
+      <c r="J208" s="0"/>
+      <c r="K208" s="0"/>
+      <c r="L208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0"/>
+      <c r="B209" s="0"/>
+      <c r="C209" s="0"/>
+      <c r="D209" s="0"/>
+      <c r="E209" s="0"/>
+      <c r="F209" s="0"/>
+      <c r="G209" s="0"/>
+      <c r="H209" s="0"/>
+      <c r="I209" s="0"/>
+      <c r="J209" s="0"/>
+      <c r="K209" s="0"/>
+      <c r="L209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0"/>
+      <c r="B210" s="0"/>
+      <c r="C210" s="0"/>
+      <c r="D210" s="0"/>
+      <c r="E210" s="0"/>
+      <c r="F210" s="0"/>
+      <c r="G210" s="0"/>
+      <c r="H210" s="0"/>
+      <c r="I210" s="0"/>
+      <c r="J210" s="0"/>
+      <c r="K210" s="0"/>
+      <c r="L210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0"/>
+      <c r="B211" s="0"/>
+      <c r="C211" s="0"/>
+      <c r="D211" s="0"/>
+      <c r="E211" s="0"/>
+      <c r="F211" s="0"/>
+      <c r="G211" s="0"/>
+      <c r="H211" s="0"/>
+      <c r="I211" s="0"/>
+      <c r="J211" s="0"/>
+      <c r="K211" s="0"/>
+      <c r="L211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0"/>
+      <c r="B212" s="0"/>
+      <c r="C212" s="0"/>
+      <c r="D212" s="0"/>
+      <c r="E212" s="0"/>
+      <c r="F212" s="0"/>
+      <c r="G212" s="0"/>
+      <c r="H212" s="0"/>
+      <c r="I212" s="0"/>
+      <c r="J212" s="0"/>
+      <c r="K212" s="0"/>
+      <c r="L212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0"/>
+      <c r="B213" s="0"/>
+      <c r="C213" s="0"/>
+      <c r="D213" s="0"/>
+      <c r="E213" s="0"/>
+      <c r="F213" s="0"/>
+      <c r="G213" s="0"/>
+      <c r="H213" s="0"/>
+      <c r="I213" s="0"/>
+      <c r="J213" s="0"/>
+      <c r="K213" s="0"/>
+      <c r="L213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0"/>
+      <c r="B214" s="0"/>
+      <c r="C214" s="0"/>
+      <c r="D214" s="0"/>
+      <c r="E214" s="0"/>
+      <c r="F214" s="0"/>
+      <c r="G214" s="0"/>
+      <c r="H214" s="0"/>
+      <c r="I214" s="0"/>
+      <c r="J214" s="0"/>
+      <c r="K214" s="0"/>
+      <c r="L214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0"/>
+      <c r="B215" s="0"/>
+      <c r="C215" s="0"/>
+      <c r="D215" s="0"/>
+      <c r="E215" s="0"/>
+      <c r="F215" s="0"/>
+      <c r="G215" s="0"/>
+      <c r="H215" s="0"/>
+      <c r="I215" s="0"/>
+      <c r="J215" s="0"/>
+      <c r="K215" s="0"/>
+      <c r="L215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0"/>
+      <c r="B216" s="0"/>
+      <c r="C216" s="0"/>
+      <c r="D216" s="0"/>
+      <c r="E216" s="0"/>
+      <c r="F216" s="0"/>
+      <c r="G216" s="0"/>
+      <c r="H216" s="0"/>
+      <c r="I216" s="0"/>
+      <c r="J216" s="0"/>
+      <c r="K216" s="0"/>
+      <c r="L216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0"/>
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
+      <c r="D217" s="0"/>
+      <c r="E217" s="0"/>
+      <c r="F217" s="0"/>
+      <c r="G217" s="0"/>
+      <c r="H217" s="0"/>
+      <c r="I217" s="0"/>
+      <c r="J217" s="0"/>
+      <c r="K217" s="0"/>
+      <c r="L217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0"/>
+      <c r="B218" s="0"/>
+      <c r="C218" s="0"/>
+      <c r="D218" s="0"/>
+      <c r="E218" s="0"/>
+      <c r="F218" s="0"/>
+      <c r="G218" s="0"/>
+      <c r="H218" s="0"/>
+      <c r="I218" s="0"/>
+      <c r="J218" s="0"/>
+      <c r="K218" s="0"/>
+      <c r="L218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0"/>
+      <c r="B219" s="0"/>
+      <c r="C219" s="0"/>
+      <c r="D219" s="0"/>
+      <c r="E219" s="0"/>
+      <c r="F219" s="0"/>
+      <c r="G219" s="0"/>
+      <c r="H219" s="0"/>
+      <c r="I219" s="0"/>
+      <c r="J219" s="0"/>
+      <c r="K219" s="0"/>
+      <c r="L219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0"/>
+      <c r="B220" s="0"/>
+      <c r="C220" s="0"/>
+      <c r="D220" s="0"/>
+      <c r="E220" s="0"/>
+      <c r="F220" s="0"/>
+      <c r="G220" s="0"/>
+      <c r="H220" s="0"/>
+      <c r="I220" s="0"/>
+      <c r="J220" s="0"/>
+      <c r="K220" s="0"/>
+      <c r="L220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0"/>
+      <c r="B221" s="0"/>
+      <c r="C221" s="0"/>
+      <c r="D221" s="0"/>
+      <c r="E221" s="0"/>
+      <c r="F221" s="0"/>
+      <c r="G221" s="0"/>
+      <c r="H221" s="0"/>
+      <c r="I221" s="0"/>
+      <c r="J221" s="0"/>
+      <c r="K221" s="0"/>
+      <c r="L221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0"/>
+      <c r="B222" s="0"/>
+      <c r="C222" s="0"/>
+      <c r="D222" s="0"/>
+      <c r="E222" s="0"/>
+      <c r="F222" s="0"/>
+      <c r="G222" s="0"/>
+      <c r="H222" s="0"/>
+      <c r="I222" s="0"/>
+      <c r="J222" s="0"/>
+      <c r="K222" s="0"/>
+      <c r="L222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0"/>
+      <c r="B223" s="0"/>
+      <c r="C223" s="0"/>
+      <c r="D223" s="0"/>
+      <c r="E223" s="0"/>
+      <c r="F223" s="0"/>
+      <c r="G223" s="0"/>
+      <c r="H223" s="0"/>
+      <c r="I223" s="0"/>
+      <c r="J223" s="0"/>
+      <c r="K223" s="0"/>
+      <c r="L223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0"/>
+      <c r="B224" s="0"/>
+      <c r="C224" s="0"/>
+      <c r="D224" s="0"/>
+      <c r="E224" s="0"/>
+      <c r="F224" s="0"/>
+      <c r="G224" s="0"/>
+      <c r="H224" s="0"/>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
+      <c r="K224" s="0"/>
+      <c r="L224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0"/>
+      <c r="B225" s="0"/>
+      <c r="C225" s="0"/>
+      <c r="D225" s="0"/>
+      <c r="E225" s="0"/>
+      <c r="F225" s="0"/>
+      <c r="G225" s="0"/>
+      <c r="H225" s="0"/>
+      <c r="I225" s="0"/>
+      <c r="J225" s="0"/>
+      <c r="K225" s="0"/>
+      <c r="L225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0"/>
+      <c r="B226" s="0"/>
+      <c r="C226" s="0"/>
+      <c r="D226" s="0"/>
+      <c r="E226" s="0"/>
+      <c r="F226" s="0"/>
+      <c r="G226" s="0"/>
+      <c r="H226" s="0"/>
+      <c r="I226" s="0"/>
+      <c r="J226" s="0"/>
+      <c r="K226" s="0"/>
+      <c r="L226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0"/>
+      <c r="B227" s="0"/>
+      <c r="C227" s="0"/>
+      <c r="D227" s="0"/>
+      <c r="E227" s="0"/>
+      <c r="F227" s="0"/>
+      <c r="G227" s="0"/>
+      <c r="H227" s="0"/>
+      <c r="I227" s="0"/>
+      <c r="J227" s="0"/>
+      <c r="K227" s="0"/>
+      <c r="L227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0"/>
+      <c r="B228" s="0"/>
+      <c r="C228" s="0"/>
+      <c r="D228" s="0"/>
+      <c r="E228" s="0"/>
+      <c r="F228" s="0"/>
+      <c r="G228" s="0"/>
+      <c r="H228" s="0"/>
+      <c r="I228" s="0"/>
+      <c r="J228" s="0"/>
+      <c r="K228" s="0"/>
+      <c r="L228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0"/>
+      <c r="B229" s="0"/>
+      <c r="C229" s="0"/>
+      <c r="D229" s="0"/>
+      <c r="E229" s="0"/>
+      <c r="F229" s="0"/>
+      <c r="G229" s="0"/>
+      <c r="H229" s="0"/>
+      <c r="I229" s="0"/>
+      <c r="J229" s="0"/>
+      <c r="K229" s="0"/>
+      <c r="L229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0"/>
+      <c r="B230" s="0"/>
+      <c r="C230" s="0"/>
+      <c r="D230" s="0"/>
+      <c r="E230" s="0"/>
+      <c r="F230" s="0"/>
+      <c r="G230" s="0"/>
+      <c r="H230" s="0"/>
+      <c r="I230" s="0"/>
+      <c r="J230" s="0"/>
+      <c r="K230" s="0"/>
+      <c r="L230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0"/>
+      <c r="B231" s="0"/>
+      <c r="C231" s="0"/>
+      <c r="D231" s="0"/>
+      <c r="E231" s="0"/>
+      <c r="F231" s="0"/>
+      <c r="G231" s="0"/>
+      <c r="H231" s="0"/>
+      <c r="I231" s="0"/>
+      <c r="J231" s="0"/>
+      <c r="K231" s="0"/>
+      <c r="L231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0"/>
+      <c r="B232" s="0"/>
+      <c r="C232" s="0"/>
+      <c r="D232" s="0"/>
+      <c r="E232" s="0"/>
+      <c r="F232" s="0"/>
+      <c r="G232" s="0"/>
+      <c r="H232" s="0"/>
+      <c r="I232" s="0"/>
+      <c r="J232" s="0"/>
+      <c r="K232" s="0"/>
+      <c r="L232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0"/>
+      <c r="B233" s="0"/>
+      <c r="C233" s="0"/>
+      <c r="D233" s="0"/>
+      <c r="E233" s="0"/>
+      <c r="F233" s="0"/>
+      <c r="G233" s="0"/>
+      <c r="H233" s="0"/>
+      <c r="I233" s="0"/>
+      <c r="J233" s="0"/>
+      <c r="K233" s="0"/>
+      <c r="L233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0"/>
+      <c r="B234" s="0"/>
+      <c r="C234" s="0"/>
+      <c r="D234" s="0"/>
+      <c r="E234" s="0"/>
+      <c r="F234" s="0"/>
+      <c r="G234" s="0"/>
+      <c r="H234" s="0"/>
+      <c r="I234" s="0"/>
+      <c r="J234" s="0"/>
+      <c r="K234" s="0"/>
+      <c r="L234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0"/>
+      <c r="B235" s="0"/>
+      <c r="C235" s="0"/>
+      <c r="D235" s="0"/>
+      <c r="E235" s="0"/>
+      <c r="F235" s="0"/>
+      <c r="G235" s="0"/>
+      <c r="H235" s="0"/>
+      <c r="I235" s="0"/>
+      <c r="J235" s="0"/>
+      <c r="K235" s="0"/>
+      <c r="L235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0"/>
+      <c r="B236" s="0"/>
+      <c r="C236" s="0"/>
+      <c r="D236" s="0"/>
+      <c r="E236" s="0"/>
+      <c r="F236" s="0"/>
+      <c r="G236" s="0"/>
+      <c r="H236" s="0"/>
+      <c r="I236" s="0"/>
+      <c r="J236" s="0"/>
+      <c r="K236" s="0"/>
+      <c r="L236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0"/>
+      <c r="B237" s="0"/>
+      <c r="C237" s="0"/>
+      <c r="D237" s="0"/>
+      <c r="E237" s="0"/>
+      <c r="F237" s="0"/>
+      <c r="G237" s="0"/>
+      <c r="H237" s="0"/>
+      <c r="I237" s="0"/>
+      <c r="J237" s="0"/>
+      <c r="K237" s="0"/>
+      <c r="L237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0"/>
+      <c r="B238" s="0"/>
+      <c r="C238" s="0"/>
+      <c r="D238" s="0"/>
+      <c r="E238" s="0"/>
+      <c r="F238" s="0"/>
+      <c r="G238" s="0"/>
+      <c r="H238" s="0"/>
+      <c r="I238" s="0"/>
+      <c r="J238" s="0"/>
+      <c r="K238" s="0"/>
+      <c r="L238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0"/>
+      <c r="B239" s="0"/>
+      <c r="C239" s="0"/>
+      <c r="D239" s="0"/>
+      <c r="E239" s="0"/>
+      <c r="F239" s="0"/>
+      <c r="G239" s="0"/>
+      <c r="H239" s="0"/>
+      <c r="I239" s="0"/>
+      <c r="J239" s="0"/>
+      <c r="K239" s="0"/>
+      <c r="L239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0"/>
+      <c r="B240" s="0"/>
+      <c r="C240" s="0"/>
+      <c r="D240" s="0"/>
+      <c r="E240" s="0"/>
+      <c r="F240" s="0"/>
+      <c r="G240" s="0"/>
+      <c r="H240" s="0"/>
+      <c r="I240" s="0"/>
+      <c r="J240" s="0"/>
+      <c r="K240" s="0"/>
+      <c r="L240" s="0"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0"/>
+      <c r="B241" s="0"/>
+      <c r="C241" s="0"/>
+      <c r="D241" s="0"/>
+      <c r="E241" s="0"/>
+      <c r="F241" s="0"/>
+      <c r="G241" s="0"/>
+      <c r="H241" s="0"/>
+      <c r="I241" s="0"/>
+      <c r="J241" s="0"/>
+      <c r="K241" s="0"/>
+      <c r="L241" s="0"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0"/>
+      <c r="B242" s="0"/>
+      <c r="C242" s="0"/>
+      <c r="D242" s="0"/>
+      <c r="E242" s="0"/>
+      <c r="F242" s="0"/>
+      <c r="G242" s="0"/>
+      <c r="H242" s="0"/>
+      <c r="I242" s="0"/>
+      <c r="J242" s="0"/>
+      <c r="K242" s="0"/>
+      <c r="L242" s="0"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0"/>
+      <c r="B243" s="0"/>
+      <c r="C243" s="0"/>
+      <c r="D243" s="0"/>
+      <c r="E243" s="0"/>
+      <c r="F243" s="0"/>
+      <c r="G243" s="0"/>
+      <c r="H243" s="0"/>
+      <c r="I243" s="0"/>
+      <c r="J243" s="0"/>
+      <c r="K243" s="0"/>
+      <c r="L243" s="0"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0"/>
+      <c r="B244" s="0"/>
+      <c r="C244" s="0"/>
+      <c r="D244" s="0"/>
+      <c r="E244" s="0"/>
+      <c r="F244" s="0"/>
+      <c r="G244" s="0"/>
+      <c r="H244" s="0"/>
+      <c r="I244" s="0"/>
+      <c r="J244" s="0"/>
+      <c r="K244" s="0"/>
+      <c r="L244" s="0"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0"/>
+      <c r="B245" s="0"/>
+      <c r="C245" s="0"/>
+      <c r="D245" s="0"/>
+      <c r="E245" s="0"/>
+      <c r="F245" s="0"/>
+      <c r="G245" s="0"/>
+      <c r="H245" s="0"/>
+      <c r="I245" s="0"/>
+      <c r="J245" s="0"/>
+      <c r="K245" s="0"/>
+      <c r="L245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0"/>
+      <c r="B246" s="0"/>
+      <c r="C246" s="0"/>
+      <c r="D246" s="0"/>
+      <c r="E246" s="0"/>
+      <c r="F246" s="0"/>
+      <c r="G246" s="0"/>
+      <c r="H246" s="0"/>
+      <c r="I246" s="0"/>
+      <c r="J246" s="0"/>
+      <c r="K246" s="0"/>
+      <c r="L246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0"/>
+      <c r="B247" s="0"/>
+      <c r="C247" s="0"/>
+      <c r="D247" s="0"/>
+      <c r="E247" s="0"/>
+      <c r="F247" s="0"/>
+      <c r="G247" s="0"/>
+      <c r="H247" s="0"/>
+      <c r="I247" s="0"/>
+      <c r="J247" s="0"/>
+      <c r="K247" s="0"/>
+      <c r="L247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0"/>
+      <c r="B248" s="0"/>
+      <c r="C248" s="0"/>
+      <c r="D248" s="0"/>
+      <c r="E248" s="0"/>
+      <c r="F248" s="0"/>
+      <c r="G248" s="0"/>
+      <c r="H248" s="0"/>
+      <c r="I248" s="0"/>
+      <c r="J248" s="0"/>
+      <c r="K248" s="0"/>
+      <c r="L248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0"/>
+      <c r="B249" s="0"/>
+      <c r="C249" s="0"/>
+      <c r="D249" s="0"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="0"/>
+      <c r="G249" s="0"/>
+      <c r="H249" s="0"/>
+      <c r="I249" s="0"/>
+      <c r="J249" s="0"/>
+      <c r="K249" s="0"/>
+      <c r="L249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0"/>
+      <c r="B250" s="0"/>
+      <c r="C250" s="0"/>
+      <c r="D250" s="0"/>
+      <c r="E250" s="0"/>
+      <c r="F250" s="0"/>
+      <c r="G250" s="0"/>
+      <c r="H250" s="0"/>
+      <c r="I250" s="0"/>
+      <c r="J250" s="0"/>
+      <c r="K250" s="0"/>
+      <c r="L250" s="0"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0"/>
+      <c r="B251" s="0"/>
+      <c r="C251" s="0"/>
+      <c r="D251" s="0"/>
+      <c r="E251" s="0"/>
+      <c r="F251" s="0"/>
+      <c r="G251" s="0"/>
+      <c r="H251" s="0"/>
+      <c r="I251" s="0"/>
+      <c r="J251" s="0"/>
+      <c r="K251" s="0"/>
+      <c r="L251" s="0"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0"/>
+      <c r="B252" s="0"/>
+      <c r="C252" s="0"/>
+      <c r="D252" s="0"/>
+      <c r="E252" s="0"/>
+      <c r="F252" s="0"/>
+      <c r="G252" s="0"/>
+      <c r="H252" s="0"/>
+      <c r="I252" s="0"/>
+      <c r="J252" s="0"/>
+      <c r="K252" s="0"/>
+      <c r="L252" s="0"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0"/>
+      <c r="B253" s="0"/>
+      <c r="C253" s="0"/>
+      <c r="D253" s="0"/>
+      <c r="E253" s="0"/>
+      <c r="F253" s="0"/>
+      <c r="G253" s="0"/>
+      <c r="H253" s="0"/>
+      <c r="I253" s="0"/>
+      <c r="J253" s="0"/>
+      <c r="K253" s="0"/>
+      <c r="L253" s="0"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0"/>
+      <c r="B254" s="0"/>
+      <c r="C254" s="0"/>
+      <c r="D254" s="0"/>
+      <c r="E254" s="0"/>
+      <c r="F254" s="0"/>
+      <c r="G254" s="0"/>
+      <c r="H254" s="0"/>
+      <c r="I254" s="0"/>
+      <c r="J254" s="0"/>
+      <c r="K254" s="0"/>
+      <c r="L254" s="0"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0"/>
+      <c r="B255" s="0"/>
+      <c r="C255" s="0"/>
+      <c r="D255" s="0"/>
+      <c r="E255" s="0"/>
+      <c r="F255" s="0"/>
+      <c r="G255" s="0"/>
+      <c r="H255" s="0"/>
+      <c r="I255" s="0"/>
+      <c r="J255" s="0"/>
+      <c r="K255" s="0"/>
+      <c r="L255" s="0"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0"/>
+      <c r="B256" s="0"/>
+      <c r="C256" s="0"/>
+      <c r="D256" s="0"/>
+      <c r="E256" s="0"/>
+      <c r="F256" s="0"/>
+      <c r="G256" s="0"/>
+      <c r="H256" s="0"/>
+      <c r="I256" s="0"/>
+      <c r="J256" s="0"/>
+      <c r="K256" s="0"/>
+      <c r="L256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0"/>
+      <c r="B257" s="0"/>
+      <c r="C257" s="0"/>
+      <c r="D257" s="0"/>
+      <c r="E257" s="0"/>
+      <c r="F257" s="0"/>
+      <c r="G257" s="0"/>
+      <c r="H257" s="0"/>
+      <c r="I257" s="0"/>
+      <c r="J257" s="0"/>
+      <c r="K257" s="0"/>
+      <c r="L257" s="0"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0"/>
+      <c r="B258" s="0"/>
+      <c r="C258" s="0"/>
+      <c r="D258" s="0"/>
+      <c r="E258" s="0"/>
+      <c r="F258" s="0"/>
+      <c r="G258" s="0"/>
+      <c r="H258" s="0"/>
+      <c r="I258" s="0"/>
+      <c r="J258" s="0"/>
+      <c r="K258" s="0"/>
+      <c r="L258" s="0"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0"/>
+      <c r="B259" s="0"/>
+      <c r="C259" s="0"/>
+      <c r="D259" s="0"/>
+      <c r="E259" s="0"/>
+      <c r="F259" s="0"/>
+      <c r="G259" s="0"/>
+      <c r="H259" s="0"/>
+      <c r="I259" s="0"/>
+      <c r="J259" s="0"/>
+      <c r="K259" s="0"/>
+      <c r="L259" s="0"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0"/>
+      <c r="B260" s="0"/>
+      <c r="C260" s="0"/>
+      <c r="D260" s="0"/>
+      <c r="E260" s="0"/>
+      <c r="F260" s="0"/>
+      <c r="G260" s="0"/>
+      <c r="H260" s="0"/>
+      <c r="I260" s="0"/>
+      <c r="J260" s="0"/>
+      <c r="K260" s="0"/>
+      <c r="L260" s="0"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0"/>
+      <c r="B261" s="0"/>
+      <c r="C261" s="0"/>
+      <c r="D261" s="0"/>
+      <c r="E261" s="0"/>
+      <c r="F261" s="0"/>
+      <c r="G261" s="0"/>
+      <c r="H261" s="0"/>
+      <c r="I261" s="0"/>
+      <c r="J261" s="0"/>
+      <c r="K261" s="0"/>
+      <c r="L261" s="0"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0"/>
+      <c r="B262" s="0"/>
+      <c r="C262" s="0"/>
+      <c r="D262" s="0"/>
+      <c r="E262" s="0"/>
+      <c r="F262" s="0"/>
+      <c r="G262" s="0"/>
+      <c r="H262" s="0"/>
+      <c r="I262" s="0"/>
+      <c r="J262" s="0"/>
+      <c r="K262" s="0"/>
+      <c r="L262" s="0"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0"/>
+      <c r="B263" s="0"/>
+      <c r="C263" s="0"/>
+      <c r="D263" s="0"/>
+      <c r="E263" s="0"/>
+      <c r="F263" s="0"/>
+      <c r="G263" s="0"/>
+      <c r="H263" s="0"/>
+      <c r="I263" s="0"/>
+      <c r="J263" s="0"/>
+      <c r="K263" s="0"/>
+      <c r="L263" s="0"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0"/>
+      <c r="B264" s="0"/>
+      <c r="C264" s="0"/>
+      <c r="D264" s="0"/>
+      <c r="E264" s="0"/>
+      <c r="F264" s="0"/>
+      <c r="G264" s="0"/>
+      <c r="H264" s="0"/>
+      <c r="I264" s="0"/>
+      <c r="J264" s="0"/>
+      <c r="K264" s="0"/>
+      <c r="L264" s="0"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0"/>
+      <c r="B265" s="0"/>
+      <c r="C265" s="0"/>
+      <c r="D265" s="0"/>
+      <c r="E265" s="0"/>
+      <c r="F265" s="0"/>
+      <c r="G265" s="0"/>
+      <c r="H265" s="0"/>
+      <c r="I265" s="0"/>
+      <c r="J265" s="0"/>
+      <c r="K265" s="0"/>
+      <c r="L265" s="0"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0"/>
+      <c r="B266" s="0"/>
+      <c r="C266" s="0"/>
+      <c r="D266" s="0"/>
+      <c r="E266" s="0"/>
+      <c r="F266" s="0"/>
+      <c r="G266" s="0"/>
+      <c r="H266" s="0"/>
+      <c r="I266" s="0"/>
+      <c r="J266" s="0"/>
+      <c r="K266" s="0"/>
+      <c r="L266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0"/>
+      <c r="B267" s="0"/>
+      <c r="C267" s="0"/>
+      <c r="D267" s="0"/>
+      <c r="E267" s="0"/>
+      <c r="F267" s="0"/>
+      <c r="G267" s="0"/>
+      <c r="H267" s="0"/>
+      <c r="I267" s="0"/>
+      <c r="J267" s="0"/>
+      <c r="K267" s="0"/>
+      <c r="L267" s="0"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0"/>
+      <c r="B268" s="0"/>
+      <c r="C268" s="0"/>
+      <c r="D268" s="0"/>
+      <c r="E268" s="0"/>
+      <c r="F268" s="0"/>
+      <c r="G268" s="0"/>
+      <c r="H268" s="0"/>
+      <c r="I268" s="0"/>
+      <c r="J268" s="0"/>
+      <c r="K268" s="0"/>
+      <c r="L268" s="0"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0"/>
+      <c r="B269" s="0"/>
+      <c r="C269" s="0"/>
+      <c r="D269" s="0"/>
+      <c r="E269" s="0"/>
+      <c r="F269" s="0"/>
+      <c r="G269" s="0"/>
+      <c r="H269" s="0"/>
+      <c r="I269" s="0"/>
+      <c r="J269" s="0"/>
+      <c r="K269" s="0"/>
+      <c r="L269" s="0"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0"/>
+      <c r="B270" s="0"/>
+      <c r="C270" s="0"/>
+      <c r="D270" s="0"/>
+      <c r="E270" s="0"/>
+      <c r="F270" s="0"/>
+      <c r="G270" s="0"/>
+      <c r="H270" s="0"/>
+      <c r="I270" s="0"/>
+      <c r="J270" s="0"/>
+      <c r="K270" s="0"/>
+      <c r="L270" s="0"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0"/>
+      <c r="B271" s="0"/>
+      <c r="C271" s="0"/>
+      <c r="D271" s="0"/>
+      <c r="E271" s="0"/>
+      <c r="F271" s="0"/>
+      <c r="G271" s="0"/>
+      <c r="H271" s="0"/>
+      <c r="I271" s="0"/>
+      <c r="J271" s="0"/>
+      <c r="K271" s="0"/>
+      <c r="L271" s="0"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0"/>
+      <c r="B272" s="0"/>
+      <c r="C272" s="0"/>
+      <c r="D272" s="0"/>
+      <c r="E272" s="0"/>
+      <c r="F272" s="0"/>
+      <c r="G272" s="0"/>
+      <c r="H272" s="0"/>
+      <c r="I272" s="0"/>
+      <c r="J272" s="0"/>
+      <c r="K272" s="0"/>
+      <c r="L272" s="0"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0"/>
+      <c r="B273" s="0"/>
+      <c r="C273" s="0"/>
+      <c r="D273" s="0"/>
+      <c r="E273" s="0"/>
+      <c r="F273" s="0"/>
+      <c r="G273" s="0"/>
+      <c r="H273" s="0"/>
+      <c r="I273" s="0"/>
+      <c r="J273" s="0"/>
+      <c r="K273" s="0"/>
+      <c r="L273" s="0"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0"/>
+      <c r="B274" s="0"/>
+      <c r="C274" s="0"/>
+      <c r="D274" s="0"/>
+      <c r="E274" s="0"/>
+      <c r="F274" s="0"/>
+      <c r="G274" s="0"/>
+      <c r="H274" s="0"/>
+      <c r="I274" s="0"/>
+      <c r="J274" s="0"/>
+      <c r="K274" s="0"/>
+      <c r="L274" s="0"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0"/>
+      <c r="B275" s="0"/>
+      <c r="C275" s="0"/>
+      <c r="D275" s="0"/>
+      <c r="E275" s="0"/>
+      <c r="F275" s="0"/>
+      <c r="G275" s="0"/>
+      <c r="H275" s="0"/>
+      <c r="I275" s="0"/>
+      <c r="J275" s="0"/>
+      <c r="K275" s="0"/>
+      <c r="L275" s="0"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0"/>
+      <c r="B276" s="0"/>
+      <c r="C276" s="0"/>
+      <c r="D276" s="0"/>
+      <c r="E276" s="0"/>
+      <c r="F276" s="0"/>
+      <c r="G276" s="0"/>
+      <c r="H276" s="0"/>
+      <c r="I276" s="0"/>
+      <c r="J276" s="0"/>
+      <c r="K276" s="0"/>
+      <c r="L276" s="0"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0"/>
+      <c r="B277" s="0"/>
+      <c r="C277" s="0"/>
+      <c r="D277" s="0"/>
+      <c r="E277" s="0"/>
+      <c r="F277" s="0"/>
+      <c r="G277" s="0"/>
+      <c r="H277" s="0"/>
+      <c r="I277" s="0"/>
+      <c r="J277" s="0"/>
+      <c r="K277" s="0"/>
+      <c r="L277" s="0"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0"/>
+      <c r="B278" s="0"/>
+      <c r="C278" s="0"/>
+      <c r="D278" s="0"/>
+      <c r="E278" s="0"/>
+      <c r="F278" s="0"/>
+      <c r="G278" s="0"/>
+      <c r="H278" s="0"/>
+      <c r="I278" s="0"/>
+      <c r="J278" s="0"/>
+      <c r="K278" s="0"/>
+      <c r="L278" s="0"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0"/>
+      <c r="B279" s="0"/>
+      <c r="C279" s="0"/>
+      <c r="D279" s="0"/>
+      <c r="E279" s="0"/>
+      <c r="F279" s="0"/>
+      <c r="G279" s="0"/>
+      <c r="H279" s="0"/>
+      <c r="I279" s="0"/>
+      <c r="J279" s="0"/>
+      <c r="K279" s="0"/>
+      <c r="L279" s="0"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0"/>
+      <c r="B280" s="0"/>
+      <c r="C280" s="0"/>
+      <c r="D280" s="0"/>
+      <c r="E280" s="0"/>
+      <c r="F280" s="0"/>
+      <c r="G280" s="0"/>
+      <c r="H280" s="0"/>
+      <c r="I280" s="0"/>
+      <c r="J280" s="0"/>
+      <c r="K280" s="0"/>
+      <c r="L280" s="0"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0"/>
+      <c r="B281" s="0"/>
+      <c r="C281" s="0"/>
+      <c r="D281" s="0"/>
+      <c r="E281" s="0"/>
+      <c r="F281" s="0"/>
+      <c r="G281" s="0"/>
+      <c r="H281" s="0"/>
+      <c r="I281" s="0"/>
+      <c r="J281" s="0"/>
+      <c r="K281" s="0"/>
+      <c r="L281" s="0"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0"/>
+      <c r="B282" s="0"/>
+      <c r="C282" s="0"/>
+      <c r="D282" s="0"/>
+      <c r="E282" s="0"/>
+      <c r="F282" s="0"/>
+      <c r="G282" s="0"/>
+      <c r="H282" s="0"/>
+      <c r="I282" s="0"/>
+      <c r="J282" s="0"/>
+      <c r="K282" s="0"/>
+      <c r="L282" s="0"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0"/>
+      <c r="B283" s="0"/>
+      <c r="C283" s="0"/>
+      <c r="D283" s="0"/>
+      <c r="E283" s="0"/>
+      <c r="F283" s="0"/>
+      <c r="G283" s="0"/>
+      <c r="H283" s="0"/>
+      <c r="I283" s="0"/>
+      <c r="J283" s="0"/>
+      <c r="K283" s="0"/>
+      <c r="L283" s="0"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0"/>
+      <c r="B284" s="0"/>
+      <c r="C284" s="0"/>
+      <c r="D284" s="0"/>
+      <c r="E284" s="0"/>
+      <c r="F284" s="0"/>
+      <c r="G284" s="0"/>
+      <c r="H284" s="0"/>
+      <c r="I284" s="0"/>
+      <c r="J284" s="0"/>
+      <c r="K284" s="0"/>
+      <c r="L284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0"/>
+      <c r="B285" s="0"/>
+      <c r="C285" s="0"/>
+      <c r="D285" s="0"/>
+      <c r="E285" s="0"/>
+      <c r="F285" s="0"/>
+      <c r="G285" s="0"/>
+      <c r="H285" s="0"/>
+      <c r="I285" s="0"/>
+      <c r="J285" s="0"/>
+      <c r="K285" s="0"/>
+      <c r="L285" s="0"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0"/>
+      <c r="B286" s="0"/>
+      <c r="C286" s="0"/>
+      <c r="D286" s="0"/>
+      <c r="E286" s="0"/>
+      <c r="F286" s="0"/>
+      <c r="G286" s="0"/>
+      <c r="H286" s="0"/>
+      <c r="I286" s="0"/>
+      <c r="J286" s="0"/>
+      <c r="K286" s="0"/>
+      <c r="L286" s="0"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0"/>
+      <c r="B287" s="0"/>
+      <c r="C287" s="0"/>
+      <c r="D287" s="0"/>
+      <c r="E287" s="0"/>
+      <c r="F287" s="0"/>
+      <c r="G287" s="0"/>
+      <c r="H287" s="0"/>
+      <c r="I287" s="0"/>
+      <c r="J287" s="0"/>
+      <c r="K287" s="0"/>
+      <c r="L287" s="0"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0"/>
+      <c r="B288" s="0"/>
+      <c r="C288" s="0"/>
+      <c r="D288" s="0"/>
+      <c r="E288" s="0"/>
+      <c r="F288" s="0"/>
+      <c r="G288" s="0"/>
+      <c r="H288" s="0"/>
+      <c r="I288" s="0"/>
+      <c r="J288" s="0"/>
+      <c r="K288" s="0"/>
+      <c r="L288" s="0"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0"/>
+      <c r="B289" s="0"/>
+      <c r="C289" s="0"/>
+      <c r="D289" s="0"/>
+      <c r="E289" s="0"/>
+      <c r="F289" s="0"/>
+      <c r="G289" s="0"/>
+      <c r="H289" s="0"/>
+      <c r="I289" s="0"/>
+      <c r="J289" s="0"/>
+      <c r="K289" s="0"/>
+      <c r="L289" s="0"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0"/>
+      <c r="B290" s="0"/>
+      <c r="C290" s="0"/>
+      <c r="D290" s="0"/>
+      <c r="E290" s="0"/>
+      <c r="F290" s="0"/>
+      <c r="G290" s="0"/>
+      <c r="H290" s="0"/>
+      <c r="I290" s="0"/>
+      <c r="J290" s="0"/>
+      <c r="K290" s="0"/>
+      <c r="L290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0"/>
+      <c r="B291" s="0"/>
+      <c r="C291" s="0"/>
+      <c r="D291" s="0"/>
+      <c r="E291" s="0"/>
+      <c r="F291" s="0"/>
+      <c r="G291" s="0"/>
+      <c r="H291" s="0"/>
+      <c r="I291" s="0"/>
+      <c r="J291" s="0"/>
+      <c r="K291" s="0"/>
+      <c r="L291" s="0"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0"/>
+      <c r="B292" s="0"/>
+      <c r="C292" s="0"/>
+      <c r="D292" s="0"/>
+      <c r="E292" s="0"/>
+      <c r="F292" s="0"/>
+      <c r="G292" s="0"/>
+      <c r="H292" s="0"/>
+      <c r="I292" s="0"/>
+      <c r="J292" s="0"/>
+      <c r="K292" s="0"/>
+      <c r="L292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0"/>
+      <c r="B293" s="0"/>
+      <c r="C293" s="0"/>
+      <c r="D293" s="0"/>
+      <c r="E293" s="0"/>
+      <c r="F293" s="0"/>
+      <c r="G293" s="0"/>
+      <c r="H293" s="0"/>
+      <c r="I293" s="0"/>
+      <c r="J293" s="0"/>
+      <c r="K293" s="0"/>
+      <c r="L293" s="0"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0"/>
+      <c r="B294" s="0"/>
+      <c r="C294" s="0"/>
+      <c r="D294" s="0"/>
+      <c r="E294" s="0"/>
+      <c r="F294" s="0"/>
+      <c r="G294" s="0"/>
+      <c r="H294" s="0"/>
+      <c r="I294" s="0"/>
+      <c r="J294" s="0"/>
+      <c r="K294" s="0"/>
+      <c r="L294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0"/>
+      <c r="B295" s="0"/>
+      <c r="C295" s="0"/>
+      <c r="D295" s="0"/>
+      <c r="E295" s="0"/>
+      <c r="F295" s="0"/>
+      <c r="G295" s="0"/>
+      <c r="H295" s="0"/>
+      <c r="I295" s="0"/>
+      <c r="J295" s="0"/>
+      <c r="K295" s="0"/>
+      <c r="L295" s="0"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0"/>
+      <c r="B296" s="0"/>
+      <c r="C296" s="0"/>
+      <c r="D296" s="0"/>
+      <c r="E296" s="0"/>
+      <c r="F296" s="0"/>
+      <c r="G296" s="0"/>
+      <c r="H296" s="0"/>
+      <c r="I296" s="0"/>
+      <c r="J296" s="0"/>
+      <c r="K296" s="0"/>
+      <c r="L296" s="0"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0"/>
+      <c r="B297" s="0"/>
+      <c r="C297" s="0"/>
+      <c r="D297" s="0"/>
+      <c r="E297" s="0"/>
+      <c r="F297" s="0"/>
+      <c r="G297" s="0"/>
+      <c r="H297" s="0"/>
+      <c r="I297" s="0"/>
+      <c r="J297" s="0"/>
+      <c r="K297" s="0"/>
+      <c r="L297" s="0"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0"/>
+      <c r="B298" s="0"/>
+      <c r="C298" s="0"/>
+      <c r="D298" s="0"/>
+      <c r="E298" s="0"/>
+      <c r="F298" s="0"/>
+      <c r="G298" s="0"/>
+      <c r="H298" s="0"/>
+      <c r="I298" s="0"/>
+      <c r="J298" s="0"/>
+      <c r="K298" s="0"/>
+      <c r="L298" s="0"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0"/>
+      <c r="B299" s="0"/>
+      <c r="C299" s="0"/>
+      <c r="D299" s="0"/>
+      <c r="E299" s="0"/>
+      <c r="F299" s="0"/>
+      <c r="G299" s="0"/>
+      <c r="H299" s="0"/>
+      <c r="I299" s="0"/>
+      <c r="J299" s="0"/>
+      <c r="K299" s="0"/>
+      <c r="L299" s="0"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0"/>
+      <c r="B300" s="0"/>
+      <c r="C300" s="0"/>
+      <c r="D300" s="0"/>
+      <c r="E300" s="0"/>
+      <c r="F300" s="0"/>
+      <c r="G300" s="0"/>
+      <c r="H300" s="0"/>
+      <c r="I300" s="0"/>
+      <c r="J300" s="0"/>
+      <c r="K300" s="0"/>
+      <c r="L300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0"/>
+      <c r="B301" s="0"/>
+      <c r="C301" s="0"/>
+      <c r="D301" s="0"/>
+      <c r="E301" s="0"/>
+      <c r="F301" s="0"/>
+      <c r="G301" s="0"/>
+      <c r="H301" s="0"/>
+      <c r="I301" s="0"/>
+      <c r="J301" s="0"/>
+      <c r="K301" s="0"/>
+      <c r="L301" s="0"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0"/>
+      <c r="B302" s="0"/>
+      <c r="C302" s="0"/>
+      <c r="D302" s="0"/>
+      <c r="E302" s="0"/>
+      <c r="F302" s="0"/>
+      <c r="G302" s="0"/>
+      <c r="H302" s="0"/>
+      <c r="I302" s="0"/>
+      <c r="J302" s="0"/>
+      <c r="K302" s="0"/>
+      <c r="L302" s="0"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0"/>
+      <c r="B303" s="0"/>
+      <c r="C303" s="0"/>
+      <c r="D303" s="0"/>
+      <c r="E303" s="0"/>
+      <c r="F303" s="0"/>
+      <c r="G303" s="0"/>
+      <c r="H303" s="0"/>
+      <c r="I303" s="0"/>
+      <c r="J303" s="0"/>
+      <c r="K303" s="0"/>
+      <c r="L303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0"/>
+      <c r="B304" s="0"/>
+      <c r="C304" s="0"/>
+      <c r="D304" s="0"/>
+      <c r="E304" s="0"/>
+      <c r="F304" s="0"/>
+      <c r="G304" s="0"/>
+      <c r="H304" s="0"/>
+      <c r="I304" s="0"/>
+      <c r="J304" s="0"/>
+      <c r="K304" s="0"/>
+      <c r="L304" s="0"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0"/>
+      <c r="B305" s="0"/>
+      <c r="C305" s="0"/>
+      <c r="D305" s="0"/>
+      <c r="E305" s="0"/>
+      <c r="F305" s="0"/>
+      <c r="G305" s="0"/>
+      <c r="H305" s="0"/>
+      <c r="I305" s="0"/>
+      <c r="J305" s="0"/>
+      <c r="K305" s="0"/>
+      <c r="L305" s="0"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0"/>
+      <c r="B306" s="0"/>
+      <c r="C306" s="0"/>
+      <c r="D306" s="0"/>
+      <c r="E306" s="0"/>
+      <c r="F306" s="0"/>
+      <c r="G306" s="0"/>
+      <c r="H306" s="0"/>
+      <c r="I306" s="0"/>
+      <c r="J306" s="0"/>
+      <c r="K306" s="0"/>
+      <c r="L306" s="0"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0"/>
+      <c r="B307" s="0"/>
+      <c r="C307" s="0"/>
+      <c r="D307" s="0"/>
+      <c r="E307" s="0"/>
+      <c r="F307" s="0"/>
+      <c r="G307" s="0"/>
+      <c r="H307" s="0"/>
+      <c r="I307" s="0"/>
+      <c r="J307" s="0"/>
+      <c r="K307" s="0"/>
+      <c r="L307" s="0"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0"/>
+      <c r="B308" s="0"/>
+      <c r="C308" s="0"/>
+      <c r="D308" s="0"/>
+      <c r="E308" s="0"/>
+      <c r="F308" s="0"/>
+      <c r="G308" s="0"/>
+      <c r="H308" s="0"/>
+      <c r="I308" s="0"/>
+      <c r="J308" s="0"/>
+      <c r="K308" s="0"/>
+      <c r="L308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0"/>
+      <c r="B309" s="0"/>
+      <c r="C309" s="0"/>
+      <c r="D309" s="0"/>
+      <c r="E309" s="0"/>
+      <c r="F309" s="0"/>
+      <c r="G309" s="0"/>
+      <c r="H309" s="0"/>
+      <c r="I309" s="0"/>
+      <c r="J309" s="0"/>
+      <c r="K309" s="0"/>
+      <c r="L309" s="0"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0"/>
+      <c r="B310" s="0"/>
+      <c r="C310" s="0"/>
+      <c r="D310" s="0"/>
+      <c r="E310" s="0"/>
+      <c r="F310" s="0"/>
+      <c r="G310" s="0"/>
+      <c r="H310" s="0"/>
+      <c r="I310" s="0"/>
+      <c r="J310" s="0"/>
+      <c r="K310" s="0"/>
+      <c r="L310" s="0"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0"/>
+      <c r="B311" s="0"/>
+      <c r="C311" s="0"/>
+      <c r="D311" s="0"/>
+      <c r="E311" s="0"/>
+      <c r="F311" s="0"/>
+      <c r="G311" s="0"/>
+      <c r="H311" s="0"/>
+      <c r="I311" s="0"/>
+      <c r="J311" s="0"/>
+      <c r="K311" s="0"/>
+      <c r="L311" s="0"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0"/>
+      <c r="B312" s="0"/>
+      <c r="C312" s="0"/>
+      <c r="D312" s="0"/>
+      <c r="E312" s="0"/>
+      <c r="F312" s="0"/>
+      <c r="G312" s="0"/>
+      <c r="H312" s="0"/>
+      <c r="I312" s="0"/>
+      <c r="J312" s="0"/>
+      <c r="K312" s="0"/>
+      <c r="L312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0"/>
+      <c r="B313" s="0"/>
+      <c r="C313" s="0"/>
+      <c r="D313" s="0"/>
+      <c r="E313" s="0"/>
+      <c r="F313" s="0"/>
+      <c r="G313" s="0"/>
+      <c r="H313" s="0"/>
+      <c r="I313" s="0"/>
+      <c r="J313" s="0"/>
+      <c r="K313" s="0"/>
+      <c r="L313" s="0"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0"/>
+      <c r="B314" s="0"/>
+      <c r="C314" s="0"/>
+      <c r="D314" s="0"/>
+      <c r="E314" s="0"/>
+      <c r="F314" s="0"/>
+      <c r="G314" s="0"/>
+      <c r="H314" s="0"/>
+      <c r="I314" s="0"/>
+      <c r="J314" s="0"/>
+      <c r="K314" s="0"/>
+      <c r="L314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0"/>
+      <c r="B315" s="0"/>
+      <c r="C315" s="0"/>
+      <c r="D315" s="0"/>
+      <c r="E315" s="0"/>
+      <c r="F315" s="0"/>
+      <c r="G315" s="0"/>
+      <c r="H315" s="0"/>
+      <c r="I315" s="0"/>
+      <c r="J315" s="0"/>
+      <c r="K315" s="0"/>
+      <c r="L315" s="0"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0"/>
+      <c r="B316" s="0"/>
+      <c r="C316" s="0"/>
+      <c r="D316" s="0"/>
+      <c r="E316" s="0"/>
+      <c r="F316" s="0"/>
+      <c r="G316" s="0"/>
+      <c r="H316" s="0"/>
+      <c r="I316" s="0"/>
+      <c r="J316" s="0"/>
+      <c r="K316" s="0"/>
+      <c r="L316" s="0"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0"/>
+      <c r="B317" s="0"/>
+      <c r="C317" s="0"/>
+      <c r="D317" s="0"/>
+      <c r="E317" s="0"/>
+      <c r="F317" s="0"/>
+      <c r="G317" s="0"/>
+      <c r="H317" s="0"/>
+      <c r="I317" s="0"/>
+      <c r="J317" s="0"/>
+      <c r="K317" s="0"/>
+      <c r="L317" s="0"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0"/>
+      <c r="B318" s="0"/>
+      <c r="C318" s="0"/>
+      <c r="D318" s="0"/>
+      <c r="E318" s="0"/>
+      <c r="F318" s="0"/>
+      <c r="G318" s="0"/>
+      <c r="H318" s="0"/>
+      <c r="I318" s="0"/>
+      <c r="J318" s="0"/>
+      <c r="K318" s="0"/>
+      <c r="L318" s="0"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0"/>
+      <c r="B319" s="0"/>
+      <c r="C319" s="0"/>
+      <c r="D319" s="0"/>
+      <c r="E319" s="0"/>
+      <c r="F319" s="0"/>
+      <c r="G319" s="0"/>
+      <c r="H319" s="0"/>
+      <c r="I319" s="0"/>
+      <c r="J319" s="0"/>
+      <c r="K319" s="0"/>
+      <c r="L319" s="0"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0"/>
+      <c r="B320" s="0"/>
+      <c r="C320" s="0"/>
+      <c r="D320" s="0"/>
+      <c r="E320" s="0"/>
+      <c r="F320" s="0"/>
+      <c r="G320" s="0"/>
+      <c r="H320" s="0"/>
+      <c r="I320" s="0"/>
+      <c r="J320" s="0"/>
+      <c r="K320" s="0"/>
+      <c r="L320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0"/>
+      <c r="B321" s="0"/>
+      <c r="C321" s="0"/>
+      <c r="D321" s="0"/>
+      <c r="E321" s="0"/>
+      <c r="F321" s="0"/>
+      <c r="G321" s="0"/>
+      <c r="H321" s="0"/>
+      <c r="I321" s="0"/>
+      <c r="J321" s="0"/>
+      <c r="K321" s="0"/>
+      <c r="L321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0"/>
+      <c r="B322" s="0"/>
+      <c r="C322" s="0"/>
+      <c r="D322" s="0"/>
+      <c r="E322" s="0"/>
+      <c r="F322" s="0"/>
+      <c r="G322" s="0"/>
+      <c r="H322" s="0"/>
+      <c r="I322" s="0"/>
+      <c r="J322" s="0"/>
+      <c r="K322" s="0"/>
+      <c r="L322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0"/>
+      <c r="B323" s="0"/>
+      <c r="C323" s="0"/>
+      <c r="D323" s="0"/>
+      <c r="E323" s="0"/>
+      <c r="F323" s="0"/>
+      <c r="G323" s="0"/>
+      <c r="H323" s="0"/>
+      <c r="I323" s="0"/>
+      <c r="J323" s="0"/>
+      <c r="K323" s="0"/>
+      <c r="L323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0"/>
+      <c r="B324" s="0"/>
+      <c r="C324" s="0"/>
+      <c r="D324" s="0"/>
+      <c r="E324" s="0"/>
+      <c r="F324" s="0"/>
+      <c r="G324" s="0"/>
+      <c r="H324" s="0"/>
+      <c r="I324" s="0"/>
+      <c r="J324" s="0"/>
+      <c r="K324" s="0"/>
+      <c r="L324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0"/>
+      <c r="B325" s="0"/>
+      <c r="C325" s="0"/>
+      <c r="D325" s="0"/>
+      <c r="E325" s="0"/>
+      <c r="F325" s="0"/>
+      <c r="G325" s="0"/>
+      <c r="H325" s="0"/>
+      <c r="I325" s="0"/>
+      <c r="J325" s="0"/>
+      <c r="K325" s="0"/>
+      <c r="L325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0"/>
+      <c r="B326" s="0"/>
+      <c r="C326" s="0"/>
+      <c r="D326" s="0"/>
+      <c r="E326" s="0"/>
+      <c r="F326" s="0"/>
+      <c r="G326" s="0"/>
+      <c r="H326" s="0"/>
+      <c r="I326" s="0"/>
+      <c r="J326" s="0"/>
+      <c r="K326" s="0"/>
+      <c r="L326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0"/>
+      <c r="B327" s="0"/>
+      <c r="C327" s="0"/>
+      <c r="D327" s="0"/>
+      <c r="E327" s="0"/>
+      <c r="F327" s="0"/>
+      <c r="G327" s="0"/>
+      <c r="H327" s="0"/>
+      <c r="I327" s="0"/>
+      <c r="J327" s="0"/>
+      <c r="K327" s="0"/>
+      <c r="L327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0"/>
+      <c r="B328" s="0"/>
+      <c r="C328" s="0"/>
+      <c r="D328" s="0"/>
+      <c r="E328" s="0"/>
+      <c r="F328" s="0"/>
+      <c r="G328" s="0"/>
+      <c r="H328" s="0"/>
+      <c r="I328" s="0"/>
+      <c r="J328" s="0"/>
+      <c r="K328" s="0"/>
+      <c r="L328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0"/>
+      <c r="B329" s="0"/>
+      <c r="C329" s="0"/>
+      <c r="D329" s="0"/>
+      <c r="E329" s="0"/>
+      <c r="F329" s="0"/>
+      <c r="G329" s="0"/>
+      <c r="H329" s="0"/>
+      <c r="I329" s="0"/>
+      <c r="J329" s="0"/>
+      <c r="K329" s="0"/>
+      <c r="L329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0"/>
+      <c r="B330" s="0"/>
+      <c r="C330" s="0"/>
+      <c r="D330" s="0"/>
+      <c r="E330" s="0"/>
+      <c r="F330" s="0"/>
+      <c r="G330" s="0"/>
+      <c r="H330" s="0"/>
+      <c r="I330" s="0"/>
+      <c r="J330" s="0"/>
+      <c r="K330" s="0"/>
+      <c r="L330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0"/>
+      <c r="B331" s="0"/>
+      <c r="C331" s="0"/>
+      <c r="D331" s="0"/>
+      <c r="E331" s="0"/>
+      <c r="F331" s="0"/>
+      <c r="G331" s="0"/>
+      <c r="H331" s="0"/>
+      <c r="I331" s="0"/>
+      <c r="J331" s="0"/>
+      <c r="K331" s="0"/>
+      <c r="L331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0"/>
+      <c r="B332" s="0"/>
+      <c r="C332" s="0"/>
+      <c r="D332" s="0"/>
+      <c r="E332" s="0"/>
+      <c r="F332" s="0"/>
+      <c r="G332" s="0"/>
+      <c r="H332" s="0"/>
+      <c r="I332" s="0"/>
+      <c r="J332" s="0"/>
+      <c r="K332" s="0"/>
+      <c r="L332" s="0"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0"/>
+      <c r="B333" s="0"/>
+      <c r="C333" s="0"/>
+      <c r="D333" s="0"/>
+      <c r="E333" s="0"/>
+      <c r="F333" s="0"/>
+      <c r="G333" s="0"/>
+      <c r="H333" s="0"/>
+      <c r="I333" s="0"/>
+      <c r="J333" s="0"/>
+      <c r="K333" s="0"/>
+      <c r="L333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0"/>
+      <c r="B334" s="0"/>
+      <c r="C334" s="0"/>
+      <c r="D334" s="0"/>
+      <c r="E334" s="0"/>
+      <c r="F334" s="0"/>
+      <c r="G334" s="0"/>
+      <c r="H334" s="0"/>
+      <c r="I334" s="0"/>
+      <c r="J334" s="0"/>
+      <c r="K334" s="0"/>
+      <c r="L334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0"/>
+      <c r="B335" s="0"/>
+      <c r="C335" s="0"/>
+      <c r="D335" s="0"/>
+      <c r="E335" s="0"/>
+      <c r="F335" s="0"/>
+      <c r="G335" s="0"/>
+      <c r="H335" s="0"/>
+      <c r="I335" s="0"/>
+      <c r="J335" s="0"/>
+      <c r="K335" s="0"/>
+      <c r="L335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0"/>
+      <c r="B336" s="0"/>
+      <c r="C336" s="0"/>
+      <c r="D336" s="0"/>
+      <c r="E336" s="0"/>
+      <c r="F336" s="0"/>
+      <c r="G336" s="0"/>
+      <c r="H336" s="0"/>
+      <c r="I336" s="0"/>
+      <c r="J336" s="0"/>
+      <c r="K336" s="0"/>
+      <c r="L336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0"/>
+      <c r="B337" s="0"/>
+      <c r="C337" s="0"/>
+      <c r="D337" s="0"/>
+      <c r="E337" s="0"/>
+      <c r="F337" s="0"/>
+      <c r="G337" s="0"/>
+      <c r="H337" s="0"/>
+      <c r="I337" s="0"/>
+      <c r="J337" s="0"/>
+      <c r="K337" s="0"/>
+      <c r="L337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0"/>
+      <c r="B338" s="0"/>
+      <c r="C338" s="0"/>
+      <c r="D338" s="0"/>
+      <c r="E338" s="0"/>
+      <c r="F338" s="0"/>
+      <c r="G338" s="0"/>
+      <c r="H338" s="0"/>
+      <c r="I338" s="0"/>
+      <c r="J338" s="0"/>
+      <c r="K338" s="0"/>
+      <c r="L338" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -21334,8 +24375,8 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23396,10 +26437,10 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -24423,10 +27464,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -25450,10 +28491,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -26477,10 +29518,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -27504,10 +30545,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -28531,10 +31572,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>461</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>459</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -29558,10 +32599,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -30585,10 +33626,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -31615,7 +34656,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -32639,10 +35680,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -33666,10 +36707,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -34693,10 +37734,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -36740,30 +39781,30 @@
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="96.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AMD16" s="0"/>
       <c r="AME16" s="0"/>
@@ -36772,7 +39813,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>39</v>
@@ -36781,19 +39822,19 @@
         <v>43</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AMD17" s="0"/>
       <c r="AME17" s="0"/>
@@ -36802,7 +39843,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>39</v>
@@ -36832,28 +39873,28 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD19" s="0"/>
       <c r="AME19" s="0"/>
@@ -36862,28 +39903,28 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD20" s="0"/>
       <c r="AME20" s="0"/>
@@ -36892,28 +39933,28 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>480</v>
-      </c>
       <c r="C21" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD21" s="0"/>
       <c r="AME21" s="0"/>
@@ -36922,7 +39963,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>39</v>
@@ -36952,7 +39993,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>39</v>
@@ -36982,28 +40023,28 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>472</v>
+        <v>186</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>472</v>
+        <v>186</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>480</v>
+        <v>186</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>480</v>
+        <v>186</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD24" s="0"/>
       <c r="AME24" s="0"/>
@@ -37012,28 +40053,28 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD25" s="0"/>
       <c r="AME25" s="0"/>
@@ -37042,7 +40083,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>39</v>
@@ -37072,28 +40113,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD27" s="0"/>
       <c r="AME27" s="0"/>
@@ -37102,7 +40143,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="40" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>39</v>
@@ -37132,28 +40173,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AMD29" s="0"/>
       <c r="AME29" s="0"/>
@@ -37162,28 +40203,28 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AMD30" s="0"/>
       <c r="AME30" s="0"/>
@@ -37192,28 +40233,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AMD31" s="0"/>
       <c r="AME31" s="0"/>
@@ -37252,28 +40293,28 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -37282,25 +40323,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -37312,7 +40353,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>39</v>
@@ -37342,28 +40383,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>

--- a/inputs/reliable_stage2_mgs.xlsx
+++ b/inputs/reliable_stage2_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="501">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -1509,7 +1509,7 @@
     <t xml:space="preserve">number_of_equal_generators</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
@@ -1519,9 +1519,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">share_hybrid</t>
@@ -1849,12 +1846,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2136,8 +2133,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2296,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2579,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2990,7 +2987,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>113</v>
@@ -3301,7 +3298,7 @@
         <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>113</v>
@@ -3312,7 +3309,7 @@
         <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>91</v>
@@ -3790,7 +3787,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI338"/>
+  <dimension ref="A1:AMI122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
@@ -21321,3030 +21318,6 @@
         <v>481653.626668214</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0"/>
-      <c r="B123" s="0"/>
-      <c r="C123" s="0"/>
-      <c r="D123" s="0"/>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
-      <c r="H123" s="0"/>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
-      <c r="K123" s="0"/>
-      <c r="L123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0"/>
-      <c r="B124" s="0"/>
-      <c r="C124" s="0"/>
-      <c r="D124" s="0"/>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
-      <c r="H124" s="0"/>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
-      <c r="K124" s="0"/>
-      <c r="L124" s="0"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0"/>
-      <c r="B125" s="0"/>
-      <c r="C125" s="0"/>
-      <c r="D125" s="0"/>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
-      <c r="H125" s="0"/>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
-      <c r="K125" s="0"/>
-      <c r="L125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0"/>
-      <c r="B126" s="0"/>
-      <c r="C126" s="0"/>
-      <c r="D126" s="0"/>
-      <c r="E126" s="0"/>
-      <c r="F126" s="0"/>
-      <c r="G126" s="0"/>
-      <c r="H126" s="0"/>
-      <c r="I126" s="0"/>
-      <c r="J126" s="0"/>
-      <c r="K126" s="0"/>
-      <c r="L126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0"/>
-      <c r="B127" s="0"/>
-      <c r="C127" s="0"/>
-      <c r="D127" s="0"/>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
-      <c r="H127" s="0"/>
-      <c r="I127" s="0"/>
-      <c r="J127" s="0"/>
-      <c r="K127" s="0"/>
-      <c r="L127" s="0"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0"/>
-      <c r="B128" s="0"/>
-      <c r="C128" s="0"/>
-      <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
-      <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
-      <c r="K128" s="0"/>
-      <c r="L128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0"/>
-      <c r="B129" s="0"/>
-      <c r="C129" s="0"/>
-      <c r="D129" s="0"/>
-      <c r="E129" s="0"/>
-      <c r="F129" s="0"/>
-      <c r="G129" s="0"/>
-      <c r="H129" s="0"/>
-      <c r="I129" s="0"/>
-      <c r="J129" s="0"/>
-      <c r="K129" s="0"/>
-      <c r="L129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0"/>
-      <c r="B130" s="0"/>
-      <c r="C130" s="0"/>
-      <c r="D130" s="0"/>
-      <c r="E130" s="0"/>
-      <c r="F130" s="0"/>
-      <c r="G130" s="0"/>
-      <c r="H130" s="0"/>
-      <c r="I130" s="0"/>
-      <c r="J130" s="0"/>
-      <c r="K130" s="0"/>
-      <c r="L130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-      <c r="B131" s="0"/>
-      <c r="C131" s="0"/>
-      <c r="D131" s="0"/>
-      <c r="E131" s="0"/>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
-      <c r="H131" s="0"/>
-      <c r="I131" s="0"/>
-      <c r="J131" s="0"/>
-      <c r="K131" s="0"/>
-      <c r="L131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0"/>
-      <c r="B132" s="0"/>
-      <c r="C132" s="0"/>
-      <c r="D132" s="0"/>
-      <c r="E132" s="0"/>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
-      <c r="H132" s="0"/>
-      <c r="I132" s="0"/>
-      <c r="J132" s="0"/>
-      <c r="K132" s="0"/>
-      <c r="L132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0"/>
-      <c r="B133" s="0"/>
-      <c r="C133" s="0"/>
-      <c r="D133" s="0"/>
-      <c r="E133" s="0"/>
-      <c r="F133" s="0"/>
-      <c r="G133" s="0"/>
-      <c r="H133" s="0"/>
-      <c r="I133" s="0"/>
-      <c r="J133" s="0"/>
-      <c r="K133" s="0"/>
-      <c r="L133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0"/>
-      <c r="B134" s="0"/>
-      <c r="C134" s="0"/>
-      <c r="D134" s="0"/>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-      <c r="G134" s="0"/>
-      <c r="H134" s="0"/>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
-      <c r="K134" s="0"/>
-      <c r="L134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0"/>
-      <c r="B135" s="0"/>
-      <c r="C135" s="0"/>
-      <c r="D135" s="0"/>
-      <c r="E135" s="0"/>
-      <c r="F135" s="0"/>
-      <c r="G135" s="0"/>
-      <c r="H135" s="0"/>
-      <c r="I135" s="0"/>
-      <c r="J135" s="0"/>
-      <c r="K135" s="0"/>
-      <c r="L135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-      <c r="K136" s="0"/>
-      <c r="L136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0"/>
-      <c r="B137" s="0"/>
-      <c r="C137" s="0"/>
-      <c r="D137" s="0"/>
-      <c r="E137" s="0"/>
-      <c r="F137" s="0"/>
-      <c r="G137" s="0"/>
-      <c r="H137" s="0"/>
-      <c r="I137" s="0"/>
-      <c r="J137" s="0"/>
-      <c r="K137" s="0"/>
-      <c r="L137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0"/>
-      <c r="B138" s="0"/>
-      <c r="C138" s="0"/>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
-      <c r="H138" s="0"/>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
-      <c r="K138" s="0"/>
-      <c r="L138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-      <c r="B139" s="0"/>
-      <c r="C139" s="0"/>
-      <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
-      <c r="H139" s="0"/>
-      <c r="I139" s="0"/>
-      <c r="J139" s="0"/>
-      <c r="K139" s="0"/>
-      <c r="L139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-      <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-      <c r="K140" s="0"/>
-      <c r="L140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
-      <c r="B141" s="0"/>
-      <c r="C141" s="0"/>
-      <c r="D141" s="0"/>
-      <c r="E141" s="0"/>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
-      <c r="H141" s="0"/>
-      <c r="I141" s="0"/>
-      <c r="J141" s="0"/>
-      <c r="K141" s="0"/>
-      <c r="L141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="0"/>
-      <c r="L142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0"/>
-      <c r="B143" s="0"/>
-      <c r="C143" s="0"/>
-      <c r="D143" s="0"/>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
-      <c r="H143" s="0"/>
-      <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
-      <c r="K143" s="0"/>
-      <c r="L143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-      <c r="K144" s="0"/>
-      <c r="L144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
-      <c r="B145" s="0"/>
-      <c r="C145" s="0"/>
-      <c r="D145" s="0"/>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
-      <c r="H145" s="0"/>
-      <c r="I145" s="0"/>
-      <c r="J145" s="0"/>
-      <c r="K145" s="0"/>
-      <c r="L145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-      <c r="K146" s="0"/>
-      <c r="L146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-      <c r="H147" s="0"/>
-      <c r="I147" s="0"/>
-      <c r="J147" s="0"/>
-      <c r="K147" s="0"/>
-      <c r="L147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
-      <c r="E148" s="0"/>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
-      <c r="H148" s="0"/>
-      <c r="I148" s="0"/>
-      <c r="J148" s="0"/>
-      <c r="K148" s="0"/>
-      <c r="L148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-      <c r="H149" s="0"/>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
-      <c r="K149" s="0"/>
-      <c r="L149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-      <c r="C150" s="0"/>
-      <c r="D150" s="0"/>
-      <c r="E150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
-      <c r="H150" s="0"/>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
-      <c r="K150" s="0"/>
-      <c r="L150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="L151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0"/>
-      <c r="B152" s="0"/>
-      <c r="C152" s="0"/>
-      <c r="D152" s="0"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
-      <c r="H152" s="0"/>
-      <c r="I152" s="0"/>
-      <c r="J152" s="0"/>
-      <c r="K152" s="0"/>
-      <c r="L152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="B153" s="0"/>
-      <c r="C153" s="0"/>
-      <c r="D153" s="0"/>
-      <c r="E153" s="0"/>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
-      <c r="H153" s="0"/>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
-      <c r="K153" s="0"/>
-      <c r="L153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-      <c r="C154" s="0"/>
-      <c r="D154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-      <c r="H154" s="0"/>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
-      <c r="K154" s="0"/>
-      <c r="L154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-      <c r="K155" s="0"/>
-      <c r="L155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0"/>
-      <c r="B156" s="0"/>
-      <c r="C156" s="0"/>
-      <c r="D156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-      <c r="H156" s="0"/>
-      <c r="I156" s="0"/>
-      <c r="J156" s="0"/>
-      <c r="K156" s="0"/>
-      <c r="L156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0"/>
-      <c r="B157" s="0"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
-      <c r="K157" s="0"/>
-      <c r="L157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0"/>
-      <c r="B158" s="0"/>
-      <c r="C158" s="0"/>
-      <c r="D158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-      <c r="H158" s="0"/>
-      <c r="I158" s="0"/>
-      <c r="J158" s="0"/>
-      <c r="K158" s="0"/>
-      <c r="L158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-      <c r="C159" s="0"/>
-      <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-      <c r="H159" s="0"/>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
-      <c r="K159" s="0"/>
-      <c r="L159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0"/>
-      <c r="B160" s="0"/>
-      <c r="C160" s="0"/>
-      <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-      <c r="H160" s="0"/>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
-      <c r="K160" s="0"/>
-      <c r="L160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
-      <c r="C161" s="0"/>
-      <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-      <c r="H161" s="0"/>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
-      <c r="K161" s="0"/>
-      <c r="L161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="B162" s="0"/>
-      <c r="C162" s="0"/>
-      <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-      <c r="K162" s="0"/>
-      <c r="L162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-      <c r="C163" s="0"/>
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
-      <c r="L163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0"/>
-      <c r="B164" s="0"/>
-      <c r="C164" s="0"/>
-      <c r="D164" s="0"/>
-      <c r="E164" s="0"/>
-      <c r="F164" s="0"/>
-      <c r="G164" s="0"/>
-      <c r="H164" s="0"/>
-      <c r="I164" s="0"/>
-      <c r="J164" s="0"/>
-      <c r="K164" s="0"/>
-      <c r="L164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-      <c r="C165" s="0"/>
-      <c r="D165" s="0"/>
-      <c r="E165" s="0"/>
-      <c r="F165" s="0"/>
-      <c r="G165" s="0"/>
-      <c r="H165" s="0"/>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
-      <c r="K165" s="0"/>
-      <c r="L165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0"/>
-      <c r="B166" s="0"/>
-      <c r="C166" s="0"/>
-      <c r="D166" s="0"/>
-      <c r="E166" s="0"/>
-      <c r="F166" s="0"/>
-      <c r="G166" s="0"/>
-      <c r="H166" s="0"/>
-      <c r="I166" s="0"/>
-      <c r="J166" s="0"/>
-      <c r="K166" s="0"/>
-      <c r="L166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="D167" s="0"/>
-      <c r="E167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
-      <c r="H167" s="0"/>
-      <c r="I167" s="0"/>
-      <c r="J167" s="0"/>
-      <c r="K167" s="0"/>
-      <c r="L167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0"/>
-      <c r="B168" s="0"/>
-      <c r="C168" s="0"/>
-      <c r="D168" s="0"/>
-      <c r="E168" s="0"/>
-      <c r="F168" s="0"/>
-      <c r="G168" s="0"/>
-      <c r="H168" s="0"/>
-      <c r="I168" s="0"/>
-      <c r="J168" s="0"/>
-      <c r="K168" s="0"/>
-      <c r="L168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
-      <c r="I169" s="0"/>
-      <c r="J169" s="0"/>
-      <c r="K169" s="0"/>
-      <c r="L169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-      <c r="C170" s="0"/>
-      <c r="D170" s="0"/>
-      <c r="E170" s="0"/>
-      <c r="F170" s="0"/>
-      <c r="G170" s="0"/>
-      <c r="H170" s="0"/>
-      <c r="I170" s="0"/>
-      <c r="J170" s="0"/>
-      <c r="K170" s="0"/>
-      <c r="L170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0"/>
-      <c r="B171" s="0"/>
-      <c r="C171" s="0"/>
-      <c r="D171" s="0"/>
-      <c r="E171" s="0"/>
-      <c r="F171" s="0"/>
-      <c r="G171" s="0"/>
-      <c r="H171" s="0"/>
-      <c r="I171" s="0"/>
-      <c r="J171" s="0"/>
-      <c r="K171" s="0"/>
-      <c r="L171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0"/>
-      <c r="B172" s="0"/>
-      <c r="C172" s="0"/>
-      <c r="D172" s="0"/>
-      <c r="E172" s="0"/>
-      <c r="F172" s="0"/>
-      <c r="G172" s="0"/>
-      <c r="H172" s="0"/>
-      <c r="I172" s="0"/>
-      <c r="J172" s="0"/>
-      <c r="K172" s="0"/>
-      <c r="L172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0"/>
-      <c r="B173" s="0"/>
-      <c r="C173" s="0"/>
-      <c r="D173" s="0"/>
-      <c r="E173" s="0"/>
-      <c r="F173" s="0"/>
-      <c r="G173" s="0"/>
-      <c r="H173" s="0"/>
-      <c r="I173" s="0"/>
-      <c r="J173" s="0"/>
-      <c r="K173" s="0"/>
-      <c r="L173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0"/>
-      <c r="B174" s="0"/>
-      <c r="C174" s="0"/>
-      <c r="D174" s="0"/>
-      <c r="E174" s="0"/>
-      <c r="F174" s="0"/>
-      <c r="G174" s="0"/>
-      <c r="H174" s="0"/>
-      <c r="I174" s="0"/>
-      <c r="J174" s="0"/>
-      <c r="K174" s="0"/>
-      <c r="L174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-      <c r="C175" s="0"/>
-      <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
-      <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
-      <c r="J175" s="0"/>
-      <c r="K175" s="0"/>
-      <c r="L175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0"/>
-      <c r="B176" s="0"/>
-      <c r="C176" s="0"/>
-      <c r="D176" s="0"/>
-      <c r="E176" s="0"/>
-      <c r="F176" s="0"/>
-      <c r="G176" s="0"/>
-      <c r="H176" s="0"/>
-      <c r="I176" s="0"/>
-      <c r="J176" s="0"/>
-      <c r="K176" s="0"/>
-      <c r="L176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0"/>
-      <c r="B177" s="0"/>
-      <c r="C177" s="0"/>
-      <c r="D177" s="0"/>
-      <c r="E177" s="0"/>
-      <c r="F177" s="0"/>
-      <c r="G177" s="0"/>
-      <c r="H177" s="0"/>
-      <c r="I177" s="0"/>
-      <c r="J177" s="0"/>
-      <c r="K177" s="0"/>
-      <c r="L177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-      <c r="C178" s="0"/>
-      <c r="D178" s="0"/>
-      <c r="E178" s="0"/>
-      <c r="F178" s="0"/>
-      <c r="G178" s="0"/>
-      <c r="H178" s="0"/>
-      <c r="I178" s="0"/>
-      <c r="J178" s="0"/>
-      <c r="K178" s="0"/>
-      <c r="L178" s="0"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0"/>
-      <c r="B179" s="0"/>
-      <c r="C179" s="0"/>
-      <c r="D179" s="0"/>
-      <c r="E179" s="0"/>
-      <c r="F179" s="0"/>
-      <c r="G179" s="0"/>
-      <c r="H179" s="0"/>
-      <c r="I179" s="0"/>
-      <c r="J179" s="0"/>
-      <c r="K179" s="0"/>
-      <c r="L179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-      <c r="C180" s="0"/>
-      <c r="D180" s="0"/>
-      <c r="E180" s="0"/>
-      <c r="F180" s="0"/>
-      <c r="G180" s="0"/>
-      <c r="H180" s="0"/>
-      <c r="I180" s="0"/>
-      <c r="J180" s="0"/>
-      <c r="K180" s="0"/>
-      <c r="L180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0"/>
-      <c r="B181" s="0"/>
-      <c r="C181" s="0"/>
-      <c r="D181" s="0"/>
-      <c r="E181" s="0"/>
-      <c r="F181" s="0"/>
-      <c r="G181" s="0"/>
-      <c r="H181" s="0"/>
-      <c r="I181" s="0"/>
-      <c r="J181" s="0"/>
-      <c r="K181" s="0"/>
-      <c r="L181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0"/>
-      <c r="B182" s="0"/>
-      <c r="C182" s="0"/>
-      <c r="D182" s="0"/>
-      <c r="E182" s="0"/>
-      <c r="F182" s="0"/>
-      <c r="G182" s="0"/>
-      <c r="H182" s="0"/>
-      <c r="I182" s="0"/>
-      <c r="J182" s="0"/>
-      <c r="K182" s="0"/>
-      <c r="L182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0"/>
-      <c r="B183" s="0"/>
-      <c r="C183" s="0"/>
-      <c r="D183" s="0"/>
-      <c r="E183" s="0"/>
-      <c r="F183" s="0"/>
-      <c r="G183" s="0"/>
-      <c r="H183" s="0"/>
-      <c r="I183" s="0"/>
-      <c r="J183" s="0"/>
-      <c r="K183" s="0"/>
-      <c r="L183" s="0"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0"/>
-      <c r="B184" s="0"/>
-      <c r="C184" s="0"/>
-      <c r="D184" s="0"/>
-      <c r="E184" s="0"/>
-      <c r="F184" s="0"/>
-      <c r="G184" s="0"/>
-      <c r="H184" s="0"/>
-      <c r="I184" s="0"/>
-      <c r="J184" s="0"/>
-      <c r="K184" s="0"/>
-      <c r="L184" s="0"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0"/>
-      <c r="B185" s="0"/>
-      <c r="C185" s="0"/>
-      <c r="D185" s="0"/>
-      <c r="E185" s="0"/>
-      <c r="F185" s="0"/>
-      <c r="G185" s="0"/>
-      <c r="H185" s="0"/>
-      <c r="I185" s="0"/>
-      <c r="J185" s="0"/>
-      <c r="K185" s="0"/>
-      <c r="L185" s="0"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0"/>
-      <c r="B186" s="0"/>
-      <c r="C186" s="0"/>
-      <c r="D186" s="0"/>
-      <c r="E186" s="0"/>
-      <c r="F186" s="0"/>
-      <c r="G186" s="0"/>
-      <c r="H186" s="0"/>
-      <c r="I186" s="0"/>
-      <c r="J186" s="0"/>
-      <c r="K186" s="0"/>
-      <c r="L186" s="0"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0"/>
-      <c r="B187" s="0"/>
-      <c r="C187" s="0"/>
-      <c r="D187" s="0"/>
-      <c r="E187" s="0"/>
-      <c r="F187" s="0"/>
-      <c r="G187" s="0"/>
-      <c r="H187" s="0"/>
-      <c r="I187" s="0"/>
-      <c r="J187" s="0"/>
-      <c r="K187" s="0"/>
-      <c r="L187" s="0"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0"/>
-      <c r="B188" s="0"/>
-      <c r="C188" s="0"/>
-      <c r="D188" s="0"/>
-      <c r="E188" s="0"/>
-      <c r="F188" s="0"/>
-      <c r="G188" s="0"/>
-      <c r="H188" s="0"/>
-      <c r="I188" s="0"/>
-      <c r="J188" s="0"/>
-      <c r="K188" s="0"/>
-      <c r="L188" s="0"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0"/>
-      <c r="B189" s="0"/>
-      <c r="C189" s="0"/>
-      <c r="D189" s="0"/>
-      <c r="E189" s="0"/>
-      <c r="F189" s="0"/>
-      <c r="G189" s="0"/>
-      <c r="H189" s="0"/>
-      <c r="I189" s="0"/>
-      <c r="J189" s="0"/>
-      <c r="K189" s="0"/>
-      <c r="L189" s="0"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0"/>
-      <c r="B190" s="0"/>
-      <c r="C190" s="0"/>
-      <c r="D190" s="0"/>
-      <c r="E190" s="0"/>
-      <c r="F190" s="0"/>
-      <c r="G190" s="0"/>
-      <c r="H190" s="0"/>
-      <c r="I190" s="0"/>
-      <c r="J190" s="0"/>
-      <c r="K190" s="0"/>
-      <c r="L190" s="0"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0"/>
-      <c r="B191" s="0"/>
-      <c r="C191" s="0"/>
-      <c r="D191" s="0"/>
-      <c r="E191" s="0"/>
-      <c r="F191" s="0"/>
-      <c r="G191" s="0"/>
-      <c r="H191" s="0"/>
-      <c r="I191" s="0"/>
-      <c r="J191" s="0"/>
-      <c r="K191" s="0"/>
-      <c r="L191" s="0"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0"/>
-      <c r="B192" s="0"/>
-      <c r="C192" s="0"/>
-      <c r="D192" s="0"/>
-      <c r="E192" s="0"/>
-      <c r="F192" s="0"/>
-      <c r="G192" s="0"/>
-      <c r="H192" s="0"/>
-      <c r="I192" s="0"/>
-      <c r="J192" s="0"/>
-      <c r="K192" s="0"/>
-      <c r="L192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0"/>
-      <c r="B193" s="0"/>
-      <c r="C193" s="0"/>
-      <c r="D193" s="0"/>
-      <c r="E193" s="0"/>
-      <c r="F193" s="0"/>
-      <c r="G193" s="0"/>
-      <c r="H193" s="0"/>
-      <c r="I193" s="0"/>
-      <c r="J193" s="0"/>
-      <c r="K193" s="0"/>
-      <c r="L193" s="0"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0"/>
-      <c r="B194" s="0"/>
-      <c r="C194" s="0"/>
-      <c r="D194" s="0"/>
-      <c r="E194" s="0"/>
-      <c r="F194" s="0"/>
-      <c r="G194" s="0"/>
-      <c r="H194" s="0"/>
-      <c r="I194" s="0"/>
-      <c r="J194" s="0"/>
-      <c r="K194" s="0"/>
-      <c r="L194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0"/>
-      <c r="B195" s="0"/>
-      <c r="C195" s="0"/>
-      <c r="D195" s="0"/>
-      <c r="E195" s="0"/>
-      <c r="F195" s="0"/>
-      <c r="G195" s="0"/>
-      <c r="H195" s="0"/>
-      <c r="I195" s="0"/>
-      <c r="J195" s="0"/>
-      <c r="K195" s="0"/>
-      <c r="L195" s="0"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0"/>
-      <c r="B196" s="0"/>
-      <c r="C196" s="0"/>
-      <c r="D196" s="0"/>
-      <c r="E196" s="0"/>
-      <c r="F196" s="0"/>
-      <c r="G196" s="0"/>
-      <c r="H196" s="0"/>
-      <c r="I196" s="0"/>
-      <c r="J196" s="0"/>
-      <c r="K196" s="0"/>
-      <c r="L196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0"/>
-      <c r="B197" s="0"/>
-      <c r="C197" s="0"/>
-      <c r="D197" s="0"/>
-      <c r="E197" s="0"/>
-      <c r="F197" s="0"/>
-      <c r="G197" s="0"/>
-      <c r="H197" s="0"/>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
-      <c r="K197" s="0"/>
-      <c r="L197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0"/>
-      <c r="B198" s="0"/>
-      <c r="C198" s="0"/>
-      <c r="D198" s="0"/>
-      <c r="E198" s="0"/>
-      <c r="F198" s="0"/>
-      <c r="G198" s="0"/>
-      <c r="H198" s="0"/>
-      <c r="I198" s="0"/>
-      <c r="J198" s="0"/>
-      <c r="K198" s="0"/>
-      <c r="L198" s="0"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0"/>
-      <c r="B199" s="0"/>
-      <c r="C199" s="0"/>
-      <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
-      <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
-      <c r="J199" s="0"/>
-      <c r="K199" s="0"/>
-      <c r="L199" s="0"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0"/>
-      <c r="B200" s="0"/>
-      <c r="C200" s="0"/>
-      <c r="D200" s="0"/>
-      <c r="E200" s="0"/>
-      <c r="F200" s="0"/>
-      <c r="G200" s="0"/>
-      <c r="H200" s="0"/>
-      <c r="I200" s="0"/>
-      <c r="J200" s="0"/>
-      <c r="K200" s="0"/>
-      <c r="L200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0"/>
-      <c r="B201" s="0"/>
-      <c r="C201" s="0"/>
-      <c r="D201" s="0"/>
-      <c r="E201" s="0"/>
-      <c r="F201" s="0"/>
-      <c r="G201" s="0"/>
-      <c r="H201" s="0"/>
-      <c r="I201" s="0"/>
-      <c r="J201" s="0"/>
-      <c r="K201" s="0"/>
-      <c r="L201" s="0"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0"/>
-      <c r="B202" s="0"/>
-      <c r="C202" s="0"/>
-      <c r="D202" s="0"/>
-      <c r="E202" s="0"/>
-      <c r="F202" s="0"/>
-      <c r="G202" s="0"/>
-      <c r="H202" s="0"/>
-      <c r="I202" s="0"/>
-      <c r="J202" s="0"/>
-      <c r="K202" s="0"/>
-      <c r="L202" s="0"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0"/>
-      <c r="B203" s="0"/>
-      <c r="C203" s="0"/>
-      <c r="D203" s="0"/>
-      <c r="E203" s="0"/>
-      <c r="F203" s="0"/>
-      <c r="G203" s="0"/>
-      <c r="H203" s="0"/>
-      <c r="I203" s="0"/>
-      <c r="J203" s="0"/>
-      <c r="K203" s="0"/>
-      <c r="L203" s="0"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0"/>
-      <c r="B204" s="0"/>
-      <c r="C204" s="0"/>
-      <c r="D204" s="0"/>
-      <c r="E204" s="0"/>
-      <c r="F204" s="0"/>
-      <c r="G204" s="0"/>
-      <c r="H204" s="0"/>
-      <c r="I204" s="0"/>
-      <c r="J204" s="0"/>
-      <c r="K204" s="0"/>
-      <c r="L204" s="0"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0"/>
-      <c r="B205" s="0"/>
-      <c r="C205" s="0"/>
-      <c r="D205" s="0"/>
-      <c r="E205" s="0"/>
-      <c r="F205" s="0"/>
-      <c r="G205" s="0"/>
-      <c r="H205" s="0"/>
-      <c r="I205" s="0"/>
-      <c r="J205" s="0"/>
-      <c r="K205" s="0"/>
-      <c r="L205" s="0"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0"/>
-      <c r="B206" s="0"/>
-      <c r="C206" s="0"/>
-      <c r="D206" s="0"/>
-      <c r="E206" s="0"/>
-      <c r="F206" s="0"/>
-      <c r="G206" s="0"/>
-      <c r="H206" s="0"/>
-      <c r="I206" s="0"/>
-      <c r="J206" s="0"/>
-      <c r="K206" s="0"/>
-      <c r="L206" s="0"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0"/>
-      <c r="B207" s="0"/>
-      <c r="C207" s="0"/>
-      <c r="D207" s="0"/>
-      <c r="E207" s="0"/>
-      <c r="F207" s="0"/>
-      <c r="G207" s="0"/>
-      <c r="H207" s="0"/>
-      <c r="I207" s="0"/>
-      <c r="J207" s="0"/>
-      <c r="K207" s="0"/>
-      <c r="L207" s="0"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0"/>
-      <c r="B208" s="0"/>
-      <c r="C208" s="0"/>
-      <c r="D208" s="0"/>
-      <c r="E208" s="0"/>
-      <c r="F208" s="0"/>
-      <c r="G208" s="0"/>
-      <c r="H208" s="0"/>
-      <c r="I208" s="0"/>
-      <c r="J208" s="0"/>
-      <c r="K208" s="0"/>
-      <c r="L208" s="0"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0"/>
-      <c r="B209" s="0"/>
-      <c r="C209" s="0"/>
-      <c r="D209" s="0"/>
-      <c r="E209" s="0"/>
-      <c r="F209" s="0"/>
-      <c r="G209" s="0"/>
-      <c r="H209" s="0"/>
-      <c r="I209" s="0"/>
-      <c r="J209" s="0"/>
-      <c r="K209" s="0"/>
-      <c r="L209" s="0"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0"/>
-      <c r="B210" s="0"/>
-      <c r="C210" s="0"/>
-      <c r="D210" s="0"/>
-      <c r="E210" s="0"/>
-      <c r="F210" s="0"/>
-      <c r="G210" s="0"/>
-      <c r="H210" s="0"/>
-      <c r="I210" s="0"/>
-      <c r="J210" s="0"/>
-      <c r="K210" s="0"/>
-      <c r="L210" s="0"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0"/>
-      <c r="B211" s="0"/>
-      <c r="C211" s="0"/>
-      <c r="D211" s="0"/>
-      <c r="E211" s="0"/>
-      <c r="F211" s="0"/>
-      <c r="G211" s="0"/>
-      <c r="H211" s="0"/>
-      <c r="I211" s="0"/>
-      <c r="J211" s="0"/>
-      <c r="K211" s="0"/>
-      <c r="L211" s="0"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0"/>
-      <c r="B212" s="0"/>
-      <c r="C212" s="0"/>
-      <c r="D212" s="0"/>
-      <c r="E212" s="0"/>
-      <c r="F212" s="0"/>
-      <c r="G212" s="0"/>
-      <c r="H212" s="0"/>
-      <c r="I212" s="0"/>
-      <c r="J212" s="0"/>
-      <c r="K212" s="0"/>
-      <c r="L212" s="0"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0"/>
-      <c r="B213" s="0"/>
-      <c r="C213" s="0"/>
-      <c r="D213" s="0"/>
-      <c r="E213" s="0"/>
-      <c r="F213" s="0"/>
-      <c r="G213" s="0"/>
-      <c r="H213" s="0"/>
-      <c r="I213" s="0"/>
-      <c r="J213" s="0"/>
-      <c r="K213" s="0"/>
-      <c r="L213" s="0"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0"/>
-      <c r="B214" s="0"/>
-      <c r="C214" s="0"/>
-      <c r="D214" s="0"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="0"/>
-      <c r="G214" s="0"/>
-      <c r="H214" s="0"/>
-      <c r="I214" s="0"/>
-      <c r="J214" s="0"/>
-      <c r="K214" s="0"/>
-      <c r="L214" s="0"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0"/>
-      <c r="B215" s="0"/>
-      <c r="C215" s="0"/>
-      <c r="D215" s="0"/>
-      <c r="E215" s="0"/>
-      <c r="F215" s="0"/>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
-      <c r="I215" s="0"/>
-      <c r="J215" s="0"/>
-      <c r="K215" s="0"/>
-      <c r="L215" s="0"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0"/>
-      <c r="B216" s="0"/>
-      <c r="C216" s="0"/>
-      <c r="D216" s="0"/>
-      <c r="E216" s="0"/>
-      <c r="F216" s="0"/>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
-      <c r="I216" s="0"/>
-      <c r="J216" s="0"/>
-      <c r="K216" s="0"/>
-      <c r="L216" s="0"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0"/>
-      <c r="B217" s="0"/>
-      <c r="C217" s="0"/>
-      <c r="D217" s="0"/>
-      <c r="E217" s="0"/>
-      <c r="F217" s="0"/>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
-      <c r="K217" s="0"/>
-      <c r="L217" s="0"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0"/>
-      <c r="B218" s="0"/>
-      <c r="C218" s="0"/>
-      <c r="D218" s="0"/>
-      <c r="E218" s="0"/>
-      <c r="F218" s="0"/>
-      <c r="G218" s="0"/>
-      <c r="H218" s="0"/>
-      <c r="I218" s="0"/>
-      <c r="J218" s="0"/>
-      <c r="K218" s="0"/>
-      <c r="L218" s="0"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0"/>
-      <c r="B219" s="0"/>
-      <c r="C219" s="0"/>
-      <c r="D219" s="0"/>
-      <c r="E219" s="0"/>
-      <c r="F219" s="0"/>
-      <c r="G219" s="0"/>
-      <c r="H219" s="0"/>
-      <c r="I219" s="0"/>
-      <c r="J219" s="0"/>
-      <c r="K219" s="0"/>
-      <c r="L219" s="0"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0"/>
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0"/>
-      <c r="B221" s="0"/>
-      <c r="C221" s="0"/>
-      <c r="D221" s="0"/>
-      <c r="E221" s="0"/>
-      <c r="F221" s="0"/>
-      <c r="G221" s="0"/>
-      <c r="H221" s="0"/>
-      <c r="I221" s="0"/>
-      <c r="J221" s="0"/>
-      <c r="K221" s="0"/>
-      <c r="L221" s="0"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0"/>
-      <c r="B222" s="0"/>
-      <c r="C222" s="0"/>
-      <c r="D222" s="0"/>
-      <c r="E222" s="0"/>
-      <c r="F222" s="0"/>
-      <c r="G222" s="0"/>
-      <c r="H222" s="0"/>
-      <c r="I222" s="0"/>
-      <c r="J222" s="0"/>
-      <c r="K222" s="0"/>
-      <c r="L222" s="0"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0"/>
-      <c r="B223" s="0"/>
-      <c r="C223" s="0"/>
-      <c r="D223" s="0"/>
-      <c r="E223" s="0"/>
-      <c r="F223" s="0"/>
-      <c r="G223" s="0"/>
-      <c r="H223" s="0"/>
-      <c r="I223" s="0"/>
-      <c r="J223" s="0"/>
-      <c r="K223" s="0"/>
-      <c r="L223" s="0"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0"/>
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
-      <c r="D224" s="0"/>
-      <c r="E224" s="0"/>
-      <c r="F224" s="0"/>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
-      <c r="K224" s="0"/>
-      <c r="L224" s="0"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0"/>
-      <c r="B225" s="0"/>
-      <c r="C225" s="0"/>
-      <c r="D225" s="0"/>
-      <c r="E225" s="0"/>
-      <c r="F225" s="0"/>
-      <c r="G225" s="0"/>
-      <c r="H225" s="0"/>
-      <c r="I225" s="0"/>
-      <c r="J225" s="0"/>
-      <c r="K225" s="0"/>
-      <c r="L225" s="0"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0"/>
-      <c r="B226" s="0"/>
-      <c r="C226" s="0"/>
-      <c r="D226" s="0"/>
-      <c r="E226" s="0"/>
-      <c r="F226" s="0"/>
-      <c r="G226" s="0"/>
-      <c r="H226" s="0"/>
-      <c r="I226" s="0"/>
-      <c r="J226" s="0"/>
-      <c r="K226" s="0"/>
-      <c r="L226" s="0"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0"/>
-      <c r="B227" s="0"/>
-      <c r="C227" s="0"/>
-      <c r="D227" s="0"/>
-      <c r="E227" s="0"/>
-      <c r="F227" s="0"/>
-      <c r="G227" s="0"/>
-      <c r="H227" s="0"/>
-      <c r="I227" s="0"/>
-      <c r="J227" s="0"/>
-      <c r="K227" s="0"/>
-      <c r="L227" s="0"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0"/>
-      <c r="B228" s="0"/>
-      <c r="C228" s="0"/>
-      <c r="D228" s="0"/>
-      <c r="E228" s="0"/>
-      <c r="F228" s="0"/>
-      <c r="G228" s="0"/>
-      <c r="H228" s="0"/>
-      <c r="I228" s="0"/>
-      <c r="J228" s="0"/>
-      <c r="K228" s="0"/>
-      <c r="L228" s="0"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0"/>
-      <c r="B229" s="0"/>
-      <c r="C229" s="0"/>
-      <c r="D229" s="0"/>
-      <c r="E229" s="0"/>
-      <c r="F229" s="0"/>
-      <c r="G229" s="0"/>
-      <c r="H229" s="0"/>
-      <c r="I229" s="0"/>
-      <c r="J229" s="0"/>
-      <c r="K229" s="0"/>
-      <c r="L229" s="0"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0"/>
-      <c r="B230" s="0"/>
-      <c r="C230" s="0"/>
-      <c r="D230" s="0"/>
-      <c r="E230" s="0"/>
-      <c r="F230" s="0"/>
-      <c r="G230" s="0"/>
-      <c r="H230" s="0"/>
-      <c r="I230" s="0"/>
-      <c r="J230" s="0"/>
-      <c r="K230" s="0"/>
-      <c r="L230" s="0"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0"/>
-      <c r="B231" s="0"/>
-      <c r="C231" s="0"/>
-      <c r="D231" s="0"/>
-      <c r="E231" s="0"/>
-      <c r="F231" s="0"/>
-      <c r="G231" s="0"/>
-      <c r="H231" s="0"/>
-      <c r="I231" s="0"/>
-      <c r="J231" s="0"/>
-      <c r="K231" s="0"/>
-      <c r="L231" s="0"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0"/>
-      <c r="B232" s="0"/>
-      <c r="C232" s="0"/>
-      <c r="D232" s="0"/>
-      <c r="E232" s="0"/>
-      <c r="F232" s="0"/>
-      <c r="G232" s="0"/>
-      <c r="H232" s="0"/>
-      <c r="I232" s="0"/>
-      <c r="J232" s="0"/>
-      <c r="K232" s="0"/>
-      <c r="L232" s="0"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0"/>
-      <c r="B233" s="0"/>
-      <c r="C233" s="0"/>
-      <c r="D233" s="0"/>
-      <c r="E233" s="0"/>
-      <c r="F233" s="0"/>
-      <c r="G233" s="0"/>
-      <c r="H233" s="0"/>
-      <c r="I233" s="0"/>
-      <c r="J233" s="0"/>
-      <c r="K233" s="0"/>
-      <c r="L233" s="0"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0"/>
-      <c r="B234" s="0"/>
-      <c r="C234" s="0"/>
-      <c r="D234" s="0"/>
-      <c r="E234" s="0"/>
-      <c r="F234" s="0"/>
-      <c r="G234" s="0"/>
-      <c r="H234" s="0"/>
-      <c r="I234" s="0"/>
-      <c r="J234" s="0"/>
-      <c r="K234" s="0"/>
-      <c r="L234" s="0"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0"/>
-      <c r="B235" s="0"/>
-      <c r="C235" s="0"/>
-      <c r="D235" s="0"/>
-      <c r="E235" s="0"/>
-      <c r="F235" s="0"/>
-      <c r="G235" s="0"/>
-      <c r="H235" s="0"/>
-      <c r="I235" s="0"/>
-      <c r="J235" s="0"/>
-      <c r="K235" s="0"/>
-      <c r="L235" s="0"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0"/>
-      <c r="B236" s="0"/>
-      <c r="C236" s="0"/>
-      <c r="D236" s="0"/>
-      <c r="E236" s="0"/>
-      <c r="F236" s="0"/>
-      <c r="G236" s="0"/>
-      <c r="H236" s="0"/>
-      <c r="I236" s="0"/>
-      <c r="J236" s="0"/>
-      <c r="K236" s="0"/>
-      <c r="L236" s="0"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0"/>
-      <c r="B237" s="0"/>
-      <c r="C237" s="0"/>
-      <c r="D237" s="0"/>
-      <c r="E237" s="0"/>
-      <c r="F237" s="0"/>
-      <c r="G237" s="0"/>
-      <c r="H237" s="0"/>
-      <c r="I237" s="0"/>
-      <c r="J237" s="0"/>
-      <c r="K237" s="0"/>
-      <c r="L237" s="0"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0"/>
-      <c r="B238" s="0"/>
-      <c r="C238" s="0"/>
-      <c r="D238" s="0"/>
-      <c r="E238" s="0"/>
-      <c r="F238" s="0"/>
-      <c r="G238" s="0"/>
-      <c r="H238" s="0"/>
-      <c r="I238" s="0"/>
-      <c r="J238" s="0"/>
-      <c r="K238" s="0"/>
-      <c r="L238" s="0"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0"/>
-      <c r="B239" s="0"/>
-      <c r="C239" s="0"/>
-      <c r="D239" s="0"/>
-      <c r="E239" s="0"/>
-      <c r="F239" s="0"/>
-      <c r="G239" s="0"/>
-      <c r="H239" s="0"/>
-      <c r="I239" s="0"/>
-      <c r="J239" s="0"/>
-      <c r="K239" s="0"/>
-      <c r="L239" s="0"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0"/>
-      <c r="B240" s="0"/>
-      <c r="C240" s="0"/>
-      <c r="D240" s="0"/>
-      <c r="E240" s="0"/>
-      <c r="F240" s="0"/>
-      <c r="G240" s="0"/>
-      <c r="H240" s="0"/>
-      <c r="I240" s="0"/>
-      <c r="J240" s="0"/>
-      <c r="K240" s="0"/>
-      <c r="L240" s="0"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0"/>
-      <c r="B241" s="0"/>
-      <c r="C241" s="0"/>
-      <c r="D241" s="0"/>
-      <c r="E241" s="0"/>
-      <c r="F241" s="0"/>
-      <c r="G241" s="0"/>
-      <c r="H241" s="0"/>
-      <c r="I241" s="0"/>
-      <c r="J241" s="0"/>
-      <c r="K241" s="0"/>
-      <c r="L241" s="0"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0"/>
-      <c r="B242" s="0"/>
-      <c r="C242" s="0"/>
-      <c r="D242" s="0"/>
-      <c r="E242" s="0"/>
-      <c r="F242" s="0"/>
-      <c r="G242" s="0"/>
-      <c r="H242" s="0"/>
-      <c r="I242" s="0"/>
-      <c r="J242" s="0"/>
-      <c r="K242" s="0"/>
-      <c r="L242" s="0"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0"/>
-      <c r="B243" s="0"/>
-      <c r="C243" s="0"/>
-      <c r="D243" s="0"/>
-      <c r="E243" s="0"/>
-      <c r="F243" s="0"/>
-      <c r="G243" s="0"/>
-      <c r="H243" s="0"/>
-      <c r="I243" s="0"/>
-      <c r="J243" s="0"/>
-      <c r="K243" s="0"/>
-      <c r="L243" s="0"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0"/>
-      <c r="B244" s="0"/>
-      <c r="C244" s="0"/>
-      <c r="D244" s="0"/>
-      <c r="E244" s="0"/>
-      <c r="F244" s="0"/>
-      <c r="G244" s="0"/>
-      <c r="H244" s="0"/>
-      <c r="I244" s="0"/>
-      <c r="J244" s="0"/>
-      <c r="K244" s="0"/>
-      <c r="L244" s="0"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0"/>
-      <c r="B245" s="0"/>
-      <c r="C245" s="0"/>
-      <c r="D245" s="0"/>
-      <c r="E245" s="0"/>
-      <c r="F245" s="0"/>
-      <c r="G245" s="0"/>
-      <c r="H245" s="0"/>
-      <c r="I245" s="0"/>
-      <c r="J245" s="0"/>
-      <c r="K245" s="0"/>
-      <c r="L245" s="0"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0"/>
-      <c r="B246" s="0"/>
-      <c r="C246" s="0"/>
-      <c r="D246" s="0"/>
-      <c r="E246" s="0"/>
-      <c r="F246" s="0"/>
-      <c r="G246" s="0"/>
-      <c r="H246" s="0"/>
-      <c r="I246" s="0"/>
-      <c r="J246" s="0"/>
-      <c r="K246" s="0"/>
-      <c r="L246" s="0"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0"/>
-      <c r="B247" s="0"/>
-      <c r="C247" s="0"/>
-      <c r="D247" s="0"/>
-      <c r="E247" s="0"/>
-      <c r="F247" s="0"/>
-      <c r="G247" s="0"/>
-      <c r="H247" s="0"/>
-      <c r="I247" s="0"/>
-      <c r="J247" s="0"/>
-      <c r="K247" s="0"/>
-      <c r="L247" s="0"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0"/>
-      <c r="B248" s="0"/>
-      <c r="C248" s="0"/>
-      <c r="D248" s="0"/>
-      <c r="E248" s="0"/>
-      <c r="F248" s="0"/>
-      <c r="G248" s="0"/>
-      <c r="H248" s="0"/>
-      <c r="I248" s="0"/>
-      <c r="J248" s="0"/>
-      <c r="K248" s="0"/>
-      <c r="L248" s="0"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0"/>
-      <c r="B249" s="0"/>
-      <c r="C249" s="0"/>
-      <c r="D249" s="0"/>
-      <c r="E249" s="0"/>
-      <c r="F249" s="0"/>
-      <c r="G249" s="0"/>
-      <c r="H249" s="0"/>
-      <c r="I249" s="0"/>
-      <c r="J249" s="0"/>
-      <c r="K249" s="0"/>
-      <c r="L249" s="0"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0"/>
-      <c r="B250" s="0"/>
-      <c r="C250" s="0"/>
-      <c r="D250" s="0"/>
-      <c r="E250" s="0"/>
-      <c r="F250" s="0"/>
-      <c r="G250" s="0"/>
-      <c r="H250" s="0"/>
-      <c r="I250" s="0"/>
-      <c r="J250" s="0"/>
-      <c r="K250" s="0"/>
-      <c r="L250" s="0"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0"/>
-      <c r="B251" s="0"/>
-      <c r="C251" s="0"/>
-      <c r="D251" s="0"/>
-      <c r="E251" s="0"/>
-      <c r="F251" s="0"/>
-      <c r="G251" s="0"/>
-      <c r="H251" s="0"/>
-      <c r="I251" s="0"/>
-      <c r="J251" s="0"/>
-      <c r="K251" s="0"/>
-      <c r="L251" s="0"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0"/>
-      <c r="B252" s="0"/>
-      <c r="C252" s="0"/>
-      <c r="D252" s="0"/>
-      <c r="E252" s="0"/>
-      <c r="F252" s="0"/>
-      <c r="G252" s="0"/>
-      <c r="H252" s="0"/>
-      <c r="I252" s="0"/>
-      <c r="J252" s="0"/>
-      <c r="K252" s="0"/>
-      <c r="L252" s="0"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0"/>
-      <c r="B253" s="0"/>
-      <c r="C253" s="0"/>
-      <c r="D253" s="0"/>
-      <c r="E253" s="0"/>
-      <c r="F253" s="0"/>
-      <c r="G253" s="0"/>
-      <c r="H253" s="0"/>
-      <c r="I253" s="0"/>
-      <c r="J253" s="0"/>
-      <c r="K253" s="0"/>
-      <c r="L253" s="0"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0"/>
-      <c r="B254" s="0"/>
-      <c r="C254" s="0"/>
-      <c r="D254" s="0"/>
-      <c r="E254" s="0"/>
-      <c r="F254" s="0"/>
-      <c r="G254" s="0"/>
-      <c r="H254" s="0"/>
-      <c r="I254" s="0"/>
-      <c r="J254" s="0"/>
-      <c r="K254" s="0"/>
-      <c r="L254" s="0"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0"/>
-      <c r="B255" s="0"/>
-      <c r="C255" s="0"/>
-      <c r="D255" s="0"/>
-      <c r="E255" s="0"/>
-      <c r="F255" s="0"/>
-      <c r="G255" s="0"/>
-      <c r="H255" s="0"/>
-      <c r="I255" s="0"/>
-      <c r="J255" s="0"/>
-      <c r="K255" s="0"/>
-      <c r="L255" s="0"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0"/>
-      <c r="B256" s="0"/>
-      <c r="C256" s="0"/>
-      <c r="D256" s="0"/>
-      <c r="E256" s="0"/>
-      <c r="F256" s="0"/>
-      <c r="G256" s="0"/>
-      <c r="H256" s="0"/>
-      <c r="I256" s="0"/>
-      <c r="J256" s="0"/>
-      <c r="K256" s="0"/>
-      <c r="L256" s="0"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0"/>
-      <c r="B257" s="0"/>
-      <c r="C257" s="0"/>
-      <c r="D257" s="0"/>
-      <c r="E257" s="0"/>
-      <c r="F257" s="0"/>
-      <c r="G257" s="0"/>
-      <c r="H257" s="0"/>
-      <c r="I257" s="0"/>
-      <c r="J257" s="0"/>
-      <c r="K257" s="0"/>
-      <c r="L257" s="0"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0"/>
-      <c r="B258" s="0"/>
-      <c r="C258" s="0"/>
-      <c r="D258" s="0"/>
-      <c r="E258" s="0"/>
-      <c r="F258" s="0"/>
-      <c r="G258" s="0"/>
-      <c r="H258" s="0"/>
-      <c r="I258" s="0"/>
-      <c r="J258" s="0"/>
-      <c r="K258" s="0"/>
-      <c r="L258" s="0"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0"/>
-      <c r="B259" s="0"/>
-      <c r="C259" s="0"/>
-      <c r="D259" s="0"/>
-      <c r="E259" s="0"/>
-      <c r="F259" s="0"/>
-      <c r="G259" s="0"/>
-      <c r="H259" s="0"/>
-      <c r="I259" s="0"/>
-      <c r="J259" s="0"/>
-      <c r="K259" s="0"/>
-      <c r="L259" s="0"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0"/>
-      <c r="B260" s="0"/>
-      <c r="C260" s="0"/>
-      <c r="D260" s="0"/>
-      <c r="E260" s="0"/>
-      <c r="F260" s="0"/>
-      <c r="G260" s="0"/>
-      <c r="H260" s="0"/>
-      <c r="I260" s="0"/>
-      <c r="J260" s="0"/>
-      <c r="K260" s="0"/>
-      <c r="L260" s="0"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0"/>
-      <c r="B261" s="0"/>
-      <c r="C261" s="0"/>
-      <c r="D261" s="0"/>
-      <c r="E261" s="0"/>
-      <c r="F261" s="0"/>
-      <c r="G261" s="0"/>
-      <c r="H261" s="0"/>
-      <c r="I261" s="0"/>
-      <c r="J261" s="0"/>
-      <c r="K261" s="0"/>
-      <c r="L261" s="0"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0"/>
-      <c r="B262" s="0"/>
-      <c r="C262" s="0"/>
-      <c r="D262" s="0"/>
-      <c r="E262" s="0"/>
-      <c r="F262" s="0"/>
-      <c r="G262" s="0"/>
-      <c r="H262" s="0"/>
-      <c r="I262" s="0"/>
-      <c r="J262" s="0"/>
-      <c r="K262" s="0"/>
-      <c r="L262" s="0"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0"/>
-      <c r="B263" s="0"/>
-      <c r="C263" s="0"/>
-      <c r="D263" s="0"/>
-      <c r="E263" s="0"/>
-      <c r="F263" s="0"/>
-      <c r="G263" s="0"/>
-      <c r="H263" s="0"/>
-      <c r="I263" s="0"/>
-      <c r="J263" s="0"/>
-      <c r="K263" s="0"/>
-      <c r="L263" s="0"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0"/>
-      <c r="B264" s="0"/>
-      <c r="C264" s="0"/>
-      <c r="D264" s="0"/>
-      <c r="E264" s="0"/>
-      <c r="F264" s="0"/>
-      <c r="G264" s="0"/>
-      <c r="H264" s="0"/>
-      <c r="I264" s="0"/>
-      <c r="J264" s="0"/>
-      <c r="K264" s="0"/>
-      <c r="L264" s="0"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0"/>
-      <c r="B265" s="0"/>
-      <c r="C265" s="0"/>
-      <c r="D265" s="0"/>
-      <c r="E265" s="0"/>
-      <c r="F265" s="0"/>
-      <c r="G265" s="0"/>
-      <c r="H265" s="0"/>
-      <c r="I265" s="0"/>
-      <c r="J265" s="0"/>
-      <c r="K265" s="0"/>
-      <c r="L265" s="0"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0"/>
-      <c r="B266" s="0"/>
-      <c r="C266" s="0"/>
-      <c r="D266" s="0"/>
-      <c r="E266" s="0"/>
-      <c r="F266" s="0"/>
-      <c r="G266" s="0"/>
-      <c r="H266" s="0"/>
-      <c r="I266" s="0"/>
-      <c r="J266" s="0"/>
-      <c r="K266" s="0"/>
-      <c r="L266" s="0"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0"/>
-      <c r="B267" s="0"/>
-      <c r="C267" s="0"/>
-      <c r="D267" s="0"/>
-      <c r="E267" s="0"/>
-      <c r="F267" s="0"/>
-      <c r="G267" s="0"/>
-      <c r="H267" s="0"/>
-      <c r="I267" s="0"/>
-      <c r="J267" s="0"/>
-      <c r="K267" s="0"/>
-      <c r="L267" s="0"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0"/>
-      <c r="B268" s="0"/>
-      <c r="C268" s="0"/>
-      <c r="D268" s="0"/>
-      <c r="E268" s="0"/>
-      <c r="F268" s="0"/>
-      <c r="G268" s="0"/>
-      <c r="H268" s="0"/>
-      <c r="I268" s="0"/>
-      <c r="J268" s="0"/>
-      <c r="K268" s="0"/>
-      <c r="L268" s="0"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0"/>
-      <c r="B269" s="0"/>
-      <c r="C269" s="0"/>
-      <c r="D269" s="0"/>
-      <c r="E269" s="0"/>
-      <c r="F269" s="0"/>
-      <c r="G269" s="0"/>
-      <c r="H269" s="0"/>
-      <c r="I269" s="0"/>
-      <c r="J269" s="0"/>
-      <c r="K269" s="0"/>
-      <c r="L269" s="0"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0"/>
-      <c r="B270" s="0"/>
-      <c r="C270" s="0"/>
-      <c r="D270" s="0"/>
-      <c r="E270" s="0"/>
-      <c r="F270" s="0"/>
-      <c r="G270" s="0"/>
-      <c r="H270" s="0"/>
-      <c r="I270" s="0"/>
-      <c r="J270" s="0"/>
-      <c r="K270" s="0"/>
-      <c r="L270" s="0"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0"/>
-      <c r="B271" s="0"/>
-      <c r="C271" s="0"/>
-      <c r="D271" s="0"/>
-      <c r="E271" s="0"/>
-      <c r="F271" s="0"/>
-      <c r="G271" s="0"/>
-      <c r="H271" s="0"/>
-      <c r="I271" s="0"/>
-      <c r="J271" s="0"/>
-      <c r="K271" s="0"/>
-      <c r="L271" s="0"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0"/>
-      <c r="B272" s="0"/>
-      <c r="C272" s="0"/>
-      <c r="D272" s="0"/>
-      <c r="E272" s="0"/>
-      <c r="F272" s="0"/>
-      <c r="G272" s="0"/>
-      <c r="H272" s="0"/>
-      <c r="I272" s="0"/>
-      <c r="J272" s="0"/>
-      <c r="K272" s="0"/>
-      <c r="L272" s="0"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0"/>
-      <c r="B273" s="0"/>
-      <c r="C273" s="0"/>
-      <c r="D273" s="0"/>
-      <c r="E273" s="0"/>
-      <c r="F273" s="0"/>
-      <c r="G273" s="0"/>
-      <c r="H273" s="0"/>
-      <c r="I273" s="0"/>
-      <c r="J273" s="0"/>
-      <c r="K273" s="0"/>
-      <c r="L273" s="0"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0"/>
-      <c r="B274" s="0"/>
-      <c r="C274" s="0"/>
-      <c r="D274" s="0"/>
-      <c r="E274" s="0"/>
-      <c r="F274" s="0"/>
-      <c r="G274" s="0"/>
-      <c r="H274" s="0"/>
-      <c r="I274" s="0"/>
-      <c r="J274" s="0"/>
-      <c r="K274" s="0"/>
-      <c r="L274" s="0"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0"/>
-      <c r="B275" s="0"/>
-      <c r="C275" s="0"/>
-      <c r="D275" s="0"/>
-      <c r="E275" s="0"/>
-      <c r="F275" s="0"/>
-      <c r="G275" s="0"/>
-      <c r="H275" s="0"/>
-      <c r="I275" s="0"/>
-      <c r="J275" s="0"/>
-      <c r="K275" s="0"/>
-      <c r="L275" s="0"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0"/>
-      <c r="B276" s="0"/>
-      <c r="C276" s="0"/>
-      <c r="D276" s="0"/>
-      <c r="E276" s="0"/>
-      <c r="F276" s="0"/>
-      <c r="G276" s="0"/>
-      <c r="H276" s="0"/>
-      <c r="I276" s="0"/>
-      <c r="J276" s="0"/>
-      <c r="K276" s="0"/>
-      <c r="L276" s="0"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0"/>
-      <c r="B277" s="0"/>
-      <c r="C277" s="0"/>
-      <c r="D277" s="0"/>
-      <c r="E277" s="0"/>
-      <c r="F277" s="0"/>
-      <c r="G277" s="0"/>
-      <c r="H277" s="0"/>
-      <c r="I277" s="0"/>
-      <c r="J277" s="0"/>
-      <c r="K277" s="0"/>
-      <c r="L277" s="0"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0"/>
-      <c r="B278" s="0"/>
-      <c r="C278" s="0"/>
-      <c r="D278" s="0"/>
-      <c r="E278" s="0"/>
-      <c r="F278" s="0"/>
-      <c r="G278" s="0"/>
-      <c r="H278" s="0"/>
-      <c r="I278" s="0"/>
-      <c r="J278" s="0"/>
-      <c r="K278" s="0"/>
-      <c r="L278" s="0"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0"/>
-      <c r="B279" s="0"/>
-      <c r="C279" s="0"/>
-      <c r="D279" s="0"/>
-      <c r="E279" s="0"/>
-      <c r="F279" s="0"/>
-      <c r="G279" s="0"/>
-      <c r="H279" s="0"/>
-      <c r="I279" s="0"/>
-      <c r="J279" s="0"/>
-      <c r="K279" s="0"/>
-      <c r="L279" s="0"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0"/>
-      <c r="B280" s="0"/>
-      <c r="C280" s="0"/>
-      <c r="D280" s="0"/>
-      <c r="E280" s="0"/>
-      <c r="F280" s="0"/>
-      <c r="G280" s="0"/>
-      <c r="H280" s="0"/>
-      <c r="I280" s="0"/>
-      <c r="J280" s="0"/>
-      <c r="K280" s="0"/>
-      <c r="L280" s="0"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0"/>
-      <c r="B281" s="0"/>
-      <c r="C281" s="0"/>
-      <c r="D281" s="0"/>
-      <c r="E281" s="0"/>
-      <c r="F281" s="0"/>
-      <c r="G281" s="0"/>
-      <c r="H281" s="0"/>
-      <c r="I281" s="0"/>
-      <c r="J281" s="0"/>
-      <c r="K281" s="0"/>
-      <c r="L281" s="0"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0"/>
-      <c r="B282" s="0"/>
-      <c r="C282" s="0"/>
-      <c r="D282" s="0"/>
-      <c r="E282" s="0"/>
-      <c r="F282" s="0"/>
-      <c r="G282" s="0"/>
-      <c r="H282" s="0"/>
-      <c r="I282" s="0"/>
-      <c r="J282" s="0"/>
-      <c r="K282" s="0"/>
-      <c r="L282" s="0"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0"/>
-      <c r="B283" s="0"/>
-      <c r="C283" s="0"/>
-      <c r="D283" s="0"/>
-      <c r="E283" s="0"/>
-      <c r="F283" s="0"/>
-      <c r="G283" s="0"/>
-      <c r="H283" s="0"/>
-      <c r="I283" s="0"/>
-      <c r="J283" s="0"/>
-      <c r="K283" s="0"/>
-      <c r="L283" s="0"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0"/>
-      <c r="B284" s="0"/>
-      <c r="C284" s="0"/>
-      <c r="D284" s="0"/>
-      <c r="E284" s="0"/>
-      <c r="F284" s="0"/>
-      <c r="G284" s="0"/>
-      <c r="H284" s="0"/>
-      <c r="I284" s="0"/>
-      <c r="J284" s="0"/>
-      <c r="K284" s="0"/>
-      <c r="L284" s="0"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0"/>
-      <c r="B285" s="0"/>
-      <c r="C285" s="0"/>
-      <c r="D285" s="0"/>
-      <c r="E285" s="0"/>
-      <c r="F285" s="0"/>
-      <c r="G285" s="0"/>
-      <c r="H285" s="0"/>
-      <c r="I285" s="0"/>
-      <c r="J285" s="0"/>
-      <c r="K285" s="0"/>
-      <c r="L285" s="0"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0"/>
-      <c r="B286" s="0"/>
-      <c r="C286" s="0"/>
-      <c r="D286" s="0"/>
-      <c r="E286" s="0"/>
-      <c r="F286" s="0"/>
-      <c r="G286" s="0"/>
-      <c r="H286" s="0"/>
-      <c r="I286" s="0"/>
-      <c r="J286" s="0"/>
-      <c r="K286" s="0"/>
-      <c r="L286" s="0"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0"/>
-      <c r="B287" s="0"/>
-      <c r="C287" s="0"/>
-      <c r="D287" s="0"/>
-      <c r="E287" s="0"/>
-      <c r="F287" s="0"/>
-      <c r="G287" s="0"/>
-      <c r="H287" s="0"/>
-      <c r="I287" s="0"/>
-      <c r="J287" s="0"/>
-      <c r="K287" s="0"/>
-      <c r="L287" s="0"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0"/>
-      <c r="B288" s="0"/>
-      <c r="C288" s="0"/>
-      <c r="D288" s="0"/>
-      <c r="E288" s="0"/>
-      <c r="F288" s="0"/>
-      <c r="G288" s="0"/>
-      <c r="H288" s="0"/>
-      <c r="I288" s="0"/>
-      <c r="J288" s="0"/>
-      <c r="K288" s="0"/>
-      <c r="L288" s="0"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0"/>
-      <c r="B289" s="0"/>
-      <c r="C289" s="0"/>
-      <c r="D289" s="0"/>
-      <c r="E289" s="0"/>
-      <c r="F289" s="0"/>
-      <c r="G289" s="0"/>
-      <c r="H289" s="0"/>
-      <c r="I289" s="0"/>
-      <c r="J289" s="0"/>
-      <c r="K289" s="0"/>
-      <c r="L289" s="0"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0"/>
-      <c r="B290" s="0"/>
-      <c r="C290" s="0"/>
-      <c r="D290" s="0"/>
-      <c r="E290" s="0"/>
-      <c r="F290" s="0"/>
-      <c r="G290" s="0"/>
-      <c r="H290" s="0"/>
-      <c r="I290" s="0"/>
-      <c r="J290" s="0"/>
-      <c r="K290" s="0"/>
-      <c r="L290" s="0"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0"/>
-      <c r="B291" s="0"/>
-      <c r="C291" s="0"/>
-      <c r="D291" s="0"/>
-      <c r="E291" s="0"/>
-      <c r="F291" s="0"/>
-      <c r="G291" s="0"/>
-      <c r="H291" s="0"/>
-      <c r="I291" s="0"/>
-      <c r="J291" s="0"/>
-      <c r="K291" s="0"/>
-      <c r="L291" s="0"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0"/>
-      <c r="B292" s="0"/>
-      <c r="C292" s="0"/>
-      <c r="D292" s="0"/>
-      <c r="E292" s="0"/>
-      <c r="F292" s="0"/>
-      <c r="G292" s="0"/>
-      <c r="H292" s="0"/>
-      <c r="I292" s="0"/>
-      <c r="J292" s="0"/>
-      <c r="K292" s="0"/>
-      <c r="L292" s="0"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0"/>
-      <c r="B293" s="0"/>
-      <c r="C293" s="0"/>
-      <c r="D293" s="0"/>
-      <c r="E293" s="0"/>
-      <c r="F293" s="0"/>
-      <c r="G293" s="0"/>
-      <c r="H293" s="0"/>
-      <c r="I293" s="0"/>
-      <c r="J293" s="0"/>
-      <c r="K293" s="0"/>
-      <c r="L293" s="0"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0"/>
-      <c r="B294" s="0"/>
-      <c r="C294" s="0"/>
-      <c r="D294" s="0"/>
-      <c r="E294" s="0"/>
-      <c r="F294" s="0"/>
-      <c r="G294" s="0"/>
-      <c r="H294" s="0"/>
-      <c r="I294" s="0"/>
-      <c r="J294" s="0"/>
-      <c r="K294" s="0"/>
-      <c r="L294" s="0"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0"/>
-      <c r="B295" s="0"/>
-      <c r="C295" s="0"/>
-      <c r="D295" s="0"/>
-      <c r="E295" s="0"/>
-      <c r="F295" s="0"/>
-      <c r="G295" s="0"/>
-      <c r="H295" s="0"/>
-      <c r="I295" s="0"/>
-      <c r="J295" s="0"/>
-      <c r="K295" s="0"/>
-      <c r="L295" s="0"/>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0"/>
-      <c r="B296" s="0"/>
-      <c r="C296" s="0"/>
-      <c r="D296" s="0"/>
-      <c r="E296" s="0"/>
-      <c r="F296" s="0"/>
-      <c r="G296" s="0"/>
-      <c r="H296" s="0"/>
-      <c r="I296" s="0"/>
-      <c r="J296" s="0"/>
-      <c r="K296" s="0"/>
-      <c r="L296" s="0"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0"/>
-      <c r="B297" s="0"/>
-      <c r="C297" s="0"/>
-      <c r="D297" s="0"/>
-      <c r="E297" s="0"/>
-      <c r="F297" s="0"/>
-      <c r="G297" s="0"/>
-      <c r="H297" s="0"/>
-      <c r="I297" s="0"/>
-      <c r="J297" s="0"/>
-      <c r="K297" s="0"/>
-      <c r="L297" s="0"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0"/>
-      <c r="B298" s="0"/>
-      <c r="C298" s="0"/>
-      <c r="D298" s="0"/>
-      <c r="E298" s="0"/>
-      <c r="F298" s="0"/>
-      <c r="G298" s="0"/>
-      <c r="H298" s="0"/>
-      <c r="I298" s="0"/>
-      <c r="J298" s="0"/>
-      <c r="K298" s="0"/>
-      <c r="L298" s="0"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0"/>
-      <c r="B299" s="0"/>
-      <c r="C299" s="0"/>
-      <c r="D299" s="0"/>
-      <c r="E299" s="0"/>
-      <c r="F299" s="0"/>
-      <c r="G299" s="0"/>
-      <c r="H299" s="0"/>
-      <c r="I299" s="0"/>
-      <c r="J299" s="0"/>
-      <c r="K299" s="0"/>
-      <c r="L299" s="0"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0"/>
-      <c r="B300" s="0"/>
-      <c r="C300" s="0"/>
-      <c r="D300" s="0"/>
-      <c r="E300" s="0"/>
-      <c r="F300" s="0"/>
-      <c r="G300" s="0"/>
-      <c r="H300" s="0"/>
-      <c r="I300" s="0"/>
-      <c r="J300" s="0"/>
-      <c r="K300" s="0"/>
-      <c r="L300" s="0"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0"/>
-      <c r="B301" s="0"/>
-      <c r="C301" s="0"/>
-      <c r="D301" s="0"/>
-      <c r="E301" s="0"/>
-      <c r="F301" s="0"/>
-      <c r="G301" s="0"/>
-      <c r="H301" s="0"/>
-      <c r="I301" s="0"/>
-      <c r="J301" s="0"/>
-      <c r="K301" s="0"/>
-      <c r="L301" s="0"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0"/>
-      <c r="B302" s="0"/>
-      <c r="C302" s="0"/>
-      <c r="D302" s="0"/>
-      <c r="E302" s="0"/>
-      <c r="F302" s="0"/>
-      <c r="G302" s="0"/>
-      <c r="H302" s="0"/>
-      <c r="I302" s="0"/>
-      <c r="J302" s="0"/>
-      <c r="K302" s="0"/>
-      <c r="L302" s="0"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0"/>
-      <c r="B303" s="0"/>
-      <c r="C303" s="0"/>
-      <c r="D303" s="0"/>
-      <c r="E303" s="0"/>
-      <c r="F303" s="0"/>
-      <c r="G303" s="0"/>
-      <c r="H303" s="0"/>
-      <c r="I303" s="0"/>
-      <c r="J303" s="0"/>
-      <c r="K303" s="0"/>
-      <c r="L303" s="0"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0"/>
-      <c r="B304" s="0"/>
-      <c r="C304" s="0"/>
-      <c r="D304" s="0"/>
-      <c r="E304" s="0"/>
-      <c r="F304" s="0"/>
-      <c r="G304" s="0"/>
-      <c r="H304" s="0"/>
-      <c r="I304" s="0"/>
-      <c r="J304" s="0"/>
-      <c r="K304" s="0"/>
-      <c r="L304" s="0"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0"/>
-      <c r="B305" s="0"/>
-      <c r="C305" s="0"/>
-      <c r="D305" s="0"/>
-      <c r="E305" s="0"/>
-      <c r="F305" s="0"/>
-      <c r="G305" s="0"/>
-      <c r="H305" s="0"/>
-      <c r="I305" s="0"/>
-      <c r="J305" s="0"/>
-      <c r="K305" s="0"/>
-      <c r="L305" s="0"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0"/>
-      <c r="B306" s="0"/>
-      <c r="C306" s="0"/>
-      <c r="D306" s="0"/>
-      <c r="E306" s="0"/>
-      <c r="F306" s="0"/>
-      <c r="G306" s="0"/>
-      <c r="H306" s="0"/>
-      <c r="I306" s="0"/>
-      <c r="J306" s="0"/>
-      <c r="K306" s="0"/>
-      <c r="L306" s="0"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0"/>
-      <c r="B307" s="0"/>
-      <c r="C307" s="0"/>
-      <c r="D307" s="0"/>
-      <c r="E307" s="0"/>
-      <c r="F307" s="0"/>
-      <c r="G307" s="0"/>
-      <c r="H307" s="0"/>
-      <c r="I307" s="0"/>
-      <c r="J307" s="0"/>
-      <c r="K307" s="0"/>
-      <c r="L307" s="0"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0"/>
-      <c r="B308" s="0"/>
-      <c r="C308" s="0"/>
-      <c r="D308" s="0"/>
-      <c r="E308" s="0"/>
-      <c r="F308" s="0"/>
-      <c r="G308" s="0"/>
-      <c r="H308" s="0"/>
-      <c r="I308" s="0"/>
-      <c r="J308" s="0"/>
-      <c r="K308" s="0"/>
-      <c r="L308" s="0"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0"/>
-      <c r="B309" s="0"/>
-      <c r="C309" s="0"/>
-      <c r="D309" s="0"/>
-      <c r="E309" s="0"/>
-      <c r="F309" s="0"/>
-      <c r="G309" s="0"/>
-      <c r="H309" s="0"/>
-      <c r="I309" s="0"/>
-      <c r="J309" s="0"/>
-      <c r="K309" s="0"/>
-      <c r="L309" s="0"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0"/>
-      <c r="B310" s="0"/>
-      <c r="C310" s="0"/>
-      <c r="D310" s="0"/>
-      <c r="E310" s="0"/>
-      <c r="F310" s="0"/>
-      <c r="G310" s="0"/>
-      <c r="H310" s="0"/>
-      <c r="I310" s="0"/>
-      <c r="J310" s="0"/>
-      <c r="K310" s="0"/>
-      <c r="L310" s="0"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0"/>
-      <c r="B311" s="0"/>
-      <c r="C311" s="0"/>
-      <c r="D311" s="0"/>
-      <c r="E311" s="0"/>
-      <c r="F311" s="0"/>
-      <c r="G311" s="0"/>
-      <c r="H311" s="0"/>
-      <c r="I311" s="0"/>
-      <c r="J311" s="0"/>
-      <c r="K311" s="0"/>
-      <c r="L311" s="0"/>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0"/>
-      <c r="B312" s="0"/>
-      <c r="C312" s="0"/>
-      <c r="D312" s="0"/>
-      <c r="E312" s="0"/>
-      <c r="F312" s="0"/>
-      <c r="G312" s="0"/>
-      <c r="H312" s="0"/>
-      <c r="I312" s="0"/>
-      <c r="J312" s="0"/>
-      <c r="K312" s="0"/>
-      <c r="L312" s="0"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0"/>
-      <c r="B313" s="0"/>
-      <c r="C313" s="0"/>
-      <c r="D313" s="0"/>
-      <c r="E313" s="0"/>
-      <c r="F313" s="0"/>
-      <c r="G313" s="0"/>
-      <c r="H313" s="0"/>
-      <c r="I313" s="0"/>
-      <c r="J313" s="0"/>
-      <c r="K313" s="0"/>
-      <c r="L313" s="0"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0"/>
-      <c r="B314" s="0"/>
-      <c r="C314" s="0"/>
-      <c r="D314" s="0"/>
-      <c r="E314" s="0"/>
-      <c r="F314" s="0"/>
-      <c r="G314" s="0"/>
-      <c r="H314" s="0"/>
-      <c r="I314" s="0"/>
-      <c r="J314" s="0"/>
-      <c r="K314" s="0"/>
-      <c r="L314" s="0"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0"/>
-      <c r="B315" s="0"/>
-      <c r="C315" s="0"/>
-      <c r="D315" s="0"/>
-      <c r="E315" s="0"/>
-      <c r="F315" s="0"/>
-      <c r="G315" s="0"/>
-      <c r="H315" s="0"/>
-      <c r="I315" s="0"/>
-      <c r="J315" s="0"/>
-      <c r="K315" s="0"/>
-      <c r="L315" s="0"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0"/>
-      <c r="B316" s="0"/>
-      <c r="C316" s="0"/>
-      <c r="D316" s="0"/>
-      <c r="E316" s="0"/>
-      <c r="F316" s="0"/>
-      <c r="G316" s="0"/>
-      <c r="H316" s="0"/>
-      <c r="I316" s="0"/>
-      <c r="J316" s="0"/>
-      <c r="K316" s="0"/>
-      <c r="L316" s="0"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0"/>
-      <c r="B317" s="0"/>
-      <c r="C317" s="0"/>
-      <c r="D317" s="0"/>
-      <c r="E317" s="0"/>
-      <c r="F317" s="0"/>
-      <c r="G317" s="0"/>
-      <c r="H317" s="0"/>
-      <c r="I317" s="0"/>
-      <c r="J317" s="0"/>
-      <c r="K317" s="0"/>
-      <c r="L317" s="0"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0"/>
-      <c r="B318" s="0"/>
-      <c r="C318" s="0"/>
-      <c r="D318" s="0"/>
-      <c r="E318" s="0"/>
-      <c r="F318" s="0"/>
-      <c r="G318" s="0"/>
-      <c r="H318" s="0"/>
-      <c r="I318" s="0"/>
-      <c r="J318" s="0"/>
-      <c r="K318" s="0"/>
-      <c r="L318" s="0"/>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0"/>
-      <c r="B319" s="0"/>
-      <c r="C319" s="0"/>
-      <c r="D319" s="0"/>
-      <c r="E319" s="0"/>
-      <c r="F319" s="0"/>
-      <c r="G319" s="0"/>
-      <c r="H319" s="0"/>
-      <c r="I319" s="0"/>
-      <c r="J319" s="0"/>
-      <c r="K319" s="0"/>
-      <c r="L319" s="0"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0"/>
-      <c r="B320" s="0"/>
-      <c r="C320" s="0"/>
-      <c r="D320" s="0"/>
-      <c r="E320" s="0"/>
-      <c r="F320" s="0"/>
-      <c r="G320" s="0"/>
-      <c r="H320" s="0"/>
-      <c r="I320" s="0"/>
-      <c r="J320" s="0"/>
-      <c r="K320" s="0"/>
-      <c r="L320" s="0"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0"/>
-      <c r="B321" s="0"/>
-      <c r="C321" s="0"/>
-      <c r="D321" s="0"/>
-      <c r="E321" s="0"/>
-      <c r="F321" s="0"/>
-      <c r="G321" s="0"/>
-      <c r="H321" s="0"/>
-      <c r="I321" s="0"/>
-      <c r="J321" s="0"/>
-      <c r="K321" s="0"/>
-      <c r="L321" s="0"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0"/>
-      <c r="B322" s="0"/>
-      <c r="C322" s="0"/>
-      <c r="D322" s="0"/>
-      <c r="E322" s="0"/>
-      <c r="F322" s="0"/>
-      <c r="G322" s="0"/>
-      <c r="H322" s="0"/>
-      <c r="I322" s="0"/>
-      <c r="J322" s="0"/>
-      <c r="K322" s="0"/>
-      <c r="L322" s="0"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0"/>
-      <c r="B323" s="0"/>
-      <c r="C323" s="0"/>
-      <c r="D323" s="0"/>
-      <c r="E323" s="0"/>
-      <c r="F323" s="0"/>
-      <c r="G323" s="0"/>
-      <c r="H323" s="0"/>
-      <c r="I323" s="0"/>
-      <c r="J323" s="0"/>
-      <c r="K323" s="0"/>
-      <c r="L323" s="0"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0"/>
-      <c r="B324" s="0"/>
-      <c r="C324" s="0"/>
-      <c r="D324" s="0"/>
-      <c r="E324" s="0"/>
-      <c r="F324" s="0"/>
-      <c r="G324" s="0"/>
-      <c r="H324" s="0"/>
-      <c r="I324" s="0"/>
-      <c r="J324" s="0"/>
-      <c r="K324" s="0"/>
-      <c r="L324" s="0"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0"/>
-      <c r="B325" s="0"/>
-      <c r="C325" s="0"/>
-      <c r="D325" s="0"/>
-      <c r="E325" s="0"/>
-      <c r="F325" s="0"/>
-      <c r="G325" s="0"/>
-      <c r="H325" s="0"/>
-      <c r="I325" s="0"/>
-      <c r="J325" s="0"/>
-      <c r="K325" s="0"/>
-      <c r="L325" s="0"/>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0"/>
-      <c r="B326" s="0"/>
-      <c r="C326" s="0"/>
-      <c r="D326" s="0"/>
-      <c r="E326" s="0"/>
-      <c r="F326" s="0"/>
-      <c r="G326" s="0"/>
-      <c r="H326" s="0"/>
-      <c r="I326" s="0"/>
-      <c r="J326" s="0"/>
-      <c r="K326" s="0"/>
-      <c r="L326" s="0"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0"/>
-      <c r="B327" s="0"/>
-      <c r="C327" s="0"/>
-      <c r="D327" s="0"/>
-      <c r="E327" s="0"/>
-      <c r="F327" s="0"/>
-      <c r="G327" s="0"/>
-      <c r="H327" s="0"/>
-      <c r="I327" s="0"/>
-      <c r="J327" s="0"/>
-      <c r="K327" s="0"/>
-      <c r="L327" s="0"/>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0"/>
-      <c r="B328" s="0"/>
-      <c r="C328" s="0"/>
-      <c r="D328" s="0"/>
-      <c r="E328" s="0"/>
-      <c r="F328" s="0"/>
-      <c r="G328" s="0"/>
-      <c r="H328" s="0"/>
-      <c r="I328" s="0"/>
-      <c r="J328" s="0"/>
-      <c r="K328" s="0"/>
-      <c r="L328" s="0"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0"/>
-      <c r="B329" s="0"/>
-      <c r="C329" s="0"/>
-      <c r="D329" s="0"/>
-      <c r="E329" s="0"/>
-      <c r="F329" s="0"/>
-      <c r="G329" s="0"/>
-      <c r="H329" s="0"/>
-      <c r="I329" s="0"/>
-      <c r="J329" s="0"/>
-      <c r="K329" s="0"/>
-      <c r="L329" s="0"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0"/>
-      <c r="B330" s="0"/>
-      <c r="C330" s="0"/>
-      <c r="D330" s="0"/>
-      <c r="E330" s="0"/>
-      <c r="F330" s="0"/>
-      <c r="G330" s="0"/>
-      <c r="H330" s="0"/>
-      <c r="I330" s="0"/>
-      <c r="J330" s="0"/>
-      <c r="K330" s="0"/>
-      <c r="L330" s="0"/>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0"/>
-      <c r="B331" s="0"/>
-      <c r="C331" s="0"/>
-      <c r="D331" s="0"/>
-      <c r="E331" s="0"/>
-      <c r="F331" s="0"/>
-      <c r="G331" s="0"/>
-      <c r="H331" s="0"/>
-      <c r="I331" s="0"/>
-      <c r="J331" s="0"/>
-      <c r="K331" s="0"/>
-      <c r="L331" s="0"/>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0"/>
-      <c r="B332" s="0"/>
-      <c r="C332" s="0"/>
-      <c r="D332" s="0"/>
-      <c r="E332" s="0"/>
-      <c r="F332" s="0"/>
-      <c r="G332" s="0"/>
-      <c r="H332" s="0"/>
-      <c r="I332" s="0"/>
-      <c r="J332" s="0"/>
-      <c r="K332" s="0"/>
-      <c r="L332" s="0"/>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0"/>
-      <c r="B333" s="0"/>
-      <c r="C333" s="0"/>
-      <c r="D333" s="0"/>
-      <c r="E333" s="0"/>
-      <c r="F333" s="0"/>
-      <c r="G333" s="0"/>
-      <c r="H333" s="0"/>
-      <c r="I333" s="0"/>
-      <c r="J333" s="0"/>
-      <c r="K333" s="0"/>
-      <c r="L333" s="0"/>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0"/>
-      <c r="B334" s="0"/>
-      <c r="C334" s="0"/>
-      <c r="D334" s="0"/>
-      <c r="E334" s="0"/>
-      <c r="F334" s="0"/>
-      <c r="G334" s="0"/>
-      <c r="H334" s="0"/>
-      <c r="I334" s="0"/>
-      <c r="J334" s="0"/>
-      <c r="K334" s="0"/>
-      <c r="L334" s="0"/>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0"/>
-      <c r="B335" s="0"/>
-      <c r="C335" s="0"/>
-      <c r="D335" s="0"/>
-      <c r="E335" s="0"/>
-      <c r="F335" s="0"/>
-      <c r="G335" s="0"/>
-      <c r="H335" s="0"/>
-      <c r="I335" s="0"/>
-      <c r="J335" s="0"/>
-      <c r="K335" s="0"/>
-      <c r="L335" s="0"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0"/>
-      <c r="B336" s="0"/>
-      <c r="C336" s="0"/>
-      <c r="D336" s="0"/>
-      <c r="E336" s="0"/>
-      <c r="F336" s="0"/>
-      <c r="G336" s="0"/>
-      <c r="H336" s="0"/>
-      <c r="I336" s="0"/>
-      <c r="J336" s="0"/>
-      <c r="K336" s="0"/>
-      <c r="L336" s="0"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0"/>
-      <c r="B337" s="0"/>
-      <c r="C337" s="0"/>
-      <c r="D337" s="0"/>
-      <c r="E337" s="0"/>
-      <c r="F337" s="0"/>
-      <c r="G337" s="0"/>
-      <c r="H337" s="0"/>
-      <c r="I337" s="0"/>
-      <c r="J337" s="0"/>
-      <c r="K337" s="0"/>
-      <c r="L337" s="0"/>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0"/>
-      <c r="B338" s="0"/>
-      <c r="C338" s="0"/>
-      <c r="D338" s="0"/>
-      <c r="E338" s="0"/>
-      <c r="F338" s="0"/>
-      <c r="G338" s="0"/>
-      <c r="H338" s="0"/>
-      <c r="I338" s="0"/>
-      <c r="J338" s="0"/>
-      <c r="K338" s="0"/>
-      <c r="L338" s="0"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B3:D3"/>
@@ -24375,7 +21348,7 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -39781,7 +36754,7 @@
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="96.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
         <v>456</v>
       </c>
@@ -39831,7 +36804,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>43</v>
@@ -40032,16 +37005,16 @@
         <v>482</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>186</v>
@@ -40128,10 +37101,10 @@
         <v>491</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>186</v>
@@ -40314,7 +37287,7 @@
         <v>497</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -40329,19 +37302,19 @@
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -40383,28 +37356,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>501</v>
-      </c>
       <c r="C36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>
